--- a/INTLINE/data/193/ABS/530204.xlsx
+++ b/INTLINE/data/193/ABS/530204.xlsx
@@ -12,152 +12,152 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3535187L">Data1!$B$1:$B$10,Data1!$B$11:$B$260</definedName>
-    <definedName name="A3535187L_Data">Data1!$B$11:$B$260</definedName>
-    <definedName name="A3535187L_Latest">Data1!$B$260</definedName>
-    <definedName name="A3535188R">Data1!$G$1:$G$10,Data1!$G$11:$G$260</definedName>
-    <definedName name="A3535188R_Data">Data1!$G$11:$G$260</definedName>
-    <definedName name="A3535188R_Latest">Data1!$G$260</definedName>
-    <definedName name="A3535190A">Data1!$D$1:$D$10,Data1!$D$11:$D$260</definedName>
-    <definedName name="A3535190A_Data">Data1!$D$11:$D$260</definedName>
-    <definedName name="A3535190A_Latest">Data1!$D$260</definedName>
-    <definedName name="A3535191C">Data1!$H$1:$H$10,Data1!$H$11:$H$260</definedName>
-    <definedName name="A3535191C_Data">Data1!$H$11:$H$260</definedName>
-    <definedName name="A3535191C_Latest">Data1!$H$260</definedName>
-    <definedName name="A3535193J">Data1!$E$1:$E$10,Data1!$E$11:$E$260</definedName>
-    <definedName name="A3535193J_Data">Data1!$E$11:$E$260</definedName>
-    <definedName name="A3535193J_Latest">Data1!$E$260</definedName>
-    <definedName name="A3535196R">Data1!$C$1:$C$10,Data1!$C$11:$C$260</definedName>
-    <definedName name="A3535196R_Data">Data1!$C$11:$C$260</definedName>
-    <definedName name="A3535196R_Latest">Data1!$C$260</definedName>
-    <definedName name="A3535198V">Data1!$I$1:$I$10,Data1!$I$11:$I$260</definedName>
-    <definedName name="A3535198V_Data">Data1!$I$11:$I$260</definedName>
-    <definedName name="A3535198V_Latest">Data1!$I$260</definedName>
-    <definedName name="A3535205F">Data1!$F$1:$F$10,Data1!$F$11:$F$260</definedName>
-    <definedName name="A3535205F_Data">Data1!$F$11:$F$260</definedName>
-    <definedName name="A3535205F_Latest">Data1!$F$260</definedName>
-    <definedName name="A3535211A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$260</definedName>
-    <definedName name="A3535211A_Data">Data1!$Q$11:$Q$260</definedName>
-    <definedName name="A3535211A_Latest">Data1!$Q$260</definedName>
-    <definedName name="A3535213F">Data1!$J$1:$J$10,Data1!$J$11:$J$260</definedName>
-    <definedName name="A3535213F_Data">Data1!$J$11:$J$260</definedName>
-    <definedName name="A3535213F_Latest">Data1!$J$260</definedName>
-    <definedName name="A3535214J">Data1!$K$1:$K$10,Data1!$K$11:$K$260</definedName>
-    <definedName name="A3535214J_Data">Data1!$K$11:$K$260</definedName>
-    <definedName name="A3535214J_Latest">Data1!$K$260</definedName>
-    <definedName name="A3535215K">Data1!$L$1:$L$10,Data1!$L$11:$L$260</definedName>
-    <definedName name="A3535215K_Data">Data1!$L$11:$L$260</definedName>
-    <definedName name="A3535215K_Latest">Data1!$L$260</definedName>
-    <definedName name="A3535217R">Data1!$M$1:$M$10,Data1!$M$11:$M$260</definedName>
-    <definedName name="A3535217R_Data">Data1!$M$11:$M$260</definedName>
-    <definedName name="A3535217R_Latest">Data1!$M$260</definedName>
-    <definedName name="A3535224L">Data1!$N$1:$N$10,Data1!$N$11:$N$260</definedName>
-    <definedName name="A3535224L_Data">Data1!$N$11:$N$260</definedName>
-    <definedName name="A3535224L_Latest">Data1!$N$260</definedName>
-    <definedName name="A3535231K">Data1!$O$1:$O$10,Data1!$O$11:$O$260</definedName>
-    <definedName name="A3535231K_Data">Data1!$O$11:$O$260</definedName>
-    <definedName name="A3535231K_Latest">Data1!$O$260</definedName>
-    <definedName name="A3535246A">Data1!$P$1:$P$10,Data1!$P$11:$P$260</definedName>
-    <definedName name="A3535246A_Data">Data1!$P$11:$P$260</definedName>
-    <definedName name="A3535246A_Latest">Data1!$P$260</definedName>
-    <definedName name="A3535247C">Data1!$R$1:$R$10,Data1!$R$11:$R$260</definedName>
-    <definedName name="A3535247C_Data">Data1!$R$11:$R$260</definedName>
-    <definedName name="A3535247C_Latest">Data1!$R$260</definedName>
-    <definedName name="A3535257J">Data1!$S$1:$S$10,Data1!$S$11:$S$260</definedName>
-    <definedName name="A3535257J_Data">Data1!$S$11:$S$260</definedName>
-    <definedName name="A3535257J_Latest">Data1!$S$260</definedName>
-    <definedName name="A3535267L">Data1!$W$1:$W$10,Data1!$W$11:$W$260</definedName>
-    <definedName name="A3535267L_Data">Data1!$W$11:$W$260</definedName>
-    <definedName name="A3535267L_Latest">Data1!$W$260</definedName>
-    <definedName name="A3535268R">Data1!$X$1:$X$10,Data1!$X$11:$X$260</definedName>
-    <definedName name="A3535268R_Data">Data1!$X$11:$X$260</definedName>
-    <definedName name="A3535268R_Latest">Data1!$X$260</definedName>
-    <definedName name="A3535269T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$260</definedName>
-    <definedName name="A3535269T_Data">Data1!$Y$11:$Y$260</definedName>
-    <definedName name="A3535269T_Latest">Data1!$Y$260</definedName>
-    <definedName name="A3535270A">Data1!$T$1:$T$10,Data1!$T$11:$T$260</definedName>
-    <definedName name="A3535270A_Data">Data1!$T$11:$T$260</definedName>
-    <definedName name="A3535270A_Latest">Data1!$T$260</definedName>
-    <definedName name="A3535271C">Data1!$U$1:$U$10,Data1!$U$11:$U$260</definedName>
-    <definedName name="A3535271C_Data">Data1!$U$11:$U$260</definedName>
-    <definedName name="A3535271C_Latest">Data1!$U$260</definedName>
-    <definedName name="A3535272F">Data1!$V$1:$V$10,Data1!$V$11:$V$260</definedName>
-    <definedName name="A3535272F_Data">Data1!$V$11:$V$260</definedName>
-    <definedName name="A3535272F_Latest">Data1!$V$260</definedName>
-    <definedName name="A3535273J">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$260</definedName>
-    <definedName name="A3535273J_Data">Data1!$Z$11:$Z$260</definedName>
-    <definedName name="A3535273J_Latest">Data1!$Z$260</definedName>
-    <definedName name="A3535274K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$260</definedName>
-    <definedName name="A3535274K_Data">Data1!$AE$11:$AE$260</definedName>
-    <definedName name="A3535274K_Latest">Data1!$AE$260</definedName>
-    <definedName name="A3535276R">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$260</definedName>
-    <definedName name="A3535276R_Data">Data1!$AB$11:$AB$260</definedName>
-    <definedName name="A3535276R_Latest">Data1!$AB$260</definedName>
-    <definedName name="A3535277T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$260</definedName>
-    <definedName name="A3535277T_Data">Data1!$AF$11:$AF$260</definedName>
-    <definedName name="A3535277T_Latest">Data1!$AF$260</definedName>
-    <definedName name="A3535279W">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$260</definedName>
-    <definedName name="A3535279W_Data">Data1!$AC$11:$AC$260</definedName>
-    <definedName name="A3535279W_Latest">Data1!$AC$260</definedName>
-    <definedName name="A3535282K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$260</definedName>
-    <definedName name="A3535282K_Data">Data1!$AA$11:$AA$260</definedName>
-    <definedName name="A3535282K_Latest">Data1!$AA$260</definedName>
-    <definedName name="A3535284R">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$260</definedName>
-    <definedName name="A3535284R_Data">Data1!$AG$11:$AG$260</definedName>
-    <definedName name="A3535284R_Latest">Data1!$AG$260</definedName>
-    <definedName name="A3535291L">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$260</definedName>
-    <definedName name="A3535291L_Data">Data1!$AD$11:$AD$260</definedName>
-    <definedName name="A3535291L_Latest">Data1!$AD$260</definedName>
-    <definedName name="A3535297A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$260</definedName>
-    <definedName name="A3535297A_Data">Data1!$AO$11:$AO$260</definedName>
-    <definedName name="A3535297A_Latest">Data1!$AO$260</definedName>
-    <definedName name="A3535299F">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$260</definedName>
-    <definedName name="A3535299F_Data">Data1!$AH$11:$AH$260</definedName>
-    <definedName name="A3535299F_Latest">Data1!$AH$260</definedName>
-    <definedName name="A3535300C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$260</definedName>
-    <definedName name="A3535300C_Data">Data1!$AI$11:$AI$260</definedName>
-    <definedName name="A3535300C_Latest">Data1!$AI$260</definedName>
-    <definedName name="A3535301F">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$260</definedName>
-    <definedName name="A3535301F_Data">Data1!$AJ$11:$AJ$260</definedName>
-    <definedName name="A3535301F_Latest">Data1!$AJ$260</definedName>
-    <definedName name="A3535303K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$260</definedName>
-    <definedName name="A3535303K_Data">Data1!$AK$11:$AK$260</definedName>
-    <definedName name="A3535303K_Latest">Data1!$AK$260</definedName>
-    <definedName name="A3535310J">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$260</definedName>
-    <definedName name="A3535310J_Data">Data1!$AL$11:$AL$260</definedName>
-    <definedName name="A3535310J_Latest">Data1!$AL$260</definedName>
-    <definedName name="A3535317X">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$260</definedName>
-    <definedName name="A3535317X_Data">Data1!$AM$11:$AM$260</definedName>
-    <definedName name="A3535317X_Latest">Data1!$AM$260</definedName>
-    <definedName name="A3535332W">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$260</definedName>
-    <definedName name="A3535332W_Data">Data1!$AN$11:$AN$260</definedName>
-    <definedName name="A3535332W_Latest">Data1!$AN$260</definedName>
-    <definedName name="A3535333X">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$260</definedName>
-    <definedName name="A3535333X_Data">Data1!$AP$11:$AP$260</definedName>
-    <definedName name="A3535333X_Latest">Data1!$AP$260</definedName>
-    <definedName name="A3535343C">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$260</definedName>
-    <definedName name="A3535343C_Data">Data1!$AQ$11:$AQ$260</definedName>
-    <definedName name="A3535343C_Latest">Data1!$AQ$260</definedName>
-    <definedName name="A3535353J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$260</definedName>
-    <definedName name="A3535353J_Data">Data1!$AU$11:$AU$260</definedName>
-    <definedName name="A3535353J_Latest">Data1!$AU$260</definedName>
-    <definedName name="A3535354K">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$260</definedName>
-    <definedName name="A3535354K_Data">Data1!$AV$11:$AV$260</definedName>
-    <definedName name="A3535354K_Latest">Data1!$AV$260</definedName>
-    <definedName name="A3535355L">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$260</definedName>
-    <definedName name="A3535355L_Data">Data1!$AW$11:$AW$260</definedName>
-    <definedName name="A3535355L_Latest">Data1!$AW$260</definedName>
-    <definedName name="A3535356R">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$260</definedName>
-    <definedName name="A3535356R_Data">Data1!$AR$11:$AR$260</definedName>
-    <definedName name="A3535356R_Latest">Data1!$AR$260</definedName>
-    <definedName name="A3535357T">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$260</definedName>
-    <definedName name="A3535357T_Data">Data1!$AS$11:$AS$260</definedName>
-    <definedName name="A3535357T_Latest">Data1!$AS$260</definedName>
-    <definedName name="A3535358V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$260</definedName>
-    <definedName name="A3535358V_Data">Data1!$AT$11:$AT$260</definedName>
-    <definedName name="A3535358V_Latest">Data1!$AT$260</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$260</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$260</definedName>
+    <definedName name="A3535187L">Data1!$B$1:$B$10,Data1!$B$11:$B$261</definedName>
+    <definedName name="A3535187L_Data">Data1!$B$11:$B$261</definedName>
+    <definedName name="A3535187L_Latest">Data1!$B$261</definedName>
+    <definedName name="A3535188R">Data1!$G$1:$G$10,Data1!$G$11:$G$261</definedName>
+    <definedName name="A3535188R_Data">Data1!$G$11:$G$261</definedName>
+    <definedName name="A3535188R_Latest">Data1!$G$261</definedName>
+    <definedName name="A3535190A">Data1!$D$1:$D$10,Data1!$D$11:$D$261</definedName>
+    <definedName name="A3535190A_Data">Data1!$D$11:$D$261</definedName>
+    <definedName name="A3535190A_Latest">Data1!$D$261</definedName>
+    <definedName name="A3535191C">Data1!$H$1:$H$10,Data1!$H$11:$H$261</definedName>
+    <definedName name="A3535191C_Data">Data1!$H$11:$H$261</definedName>
+    <definedName name="A3535191C_Latest">Data1!$H$261</definedName>
+    <definedName name="A3535193J">Data1!$E$1:$E$10,Data1!$E$11:$E$261</definedName>
+    <definedName name="A3535193J_Data">Data1!$E$11:$E$261</definedName>
+    <definedName name="A3535193J_Latest">Data1!$E$261</definedName>
+    <definedName name="A3535196R">Data1!$C$1:$C$10,Data1!$C$11:$C$261</definedName>
+    <definedName name="A3535196R_Data">Data1!$C$11:$C$261</definedName>
+    <definedName name="A3535196R_Latest">Data1!$C$261</definedName>
+    <definedName name="A3535198V">Data1!$I$1:$I$10,Data1!$I$11:$I$261</definedName>
+    <definedName name="A3535198V_Data">Data1!$I$11:$I$261</definedName>
+    <definedName name="A3535198V_Latest">Data1!$I$261</definedName>
+    <definedName name="A3535205F">Data1!$F$1:$F$10,Data1!$F$11:$F$261</definedName>
+    <definedName name="A3535205F_Data">Data1!$F$11:$F$261</definedName>
+    <definedName name="A3535205F_Latest">Data1!$F$261</definedName>
+    <definedName name="A3535211A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$261</definedName>
+    <definedName name="A3535211A_Data">Data1!$Q$11:$Q$261</definedName>
+    <definedName name="A3535211A_Latest">Data1!$Q$261</definedName>
+    <definedName name="A3535213F">Data1!$J$1:$J$10,Data1!$J$11:$J$261</definedName>
+    <definedName name="A3535213F_Data">Data1!$J$11:$J$261</definedName>
+    <definedName name="A3535213F_Latest">Data1!$J$261</definedName>
+    <definedName name="A3535214J">Data1!$K$1:$K$10,Data1!$K$11:$K$261</definedName>
+    <definedName name="A3535214J_Data">Data1!$K$11:$K$261</definedName>
+    <definedName name="A3535214J_Latest">Data1!$K$261</definedName>
+    <definedName name="A3535215K">Data1!$L$1:$L$10,Data1!$L$11:$L$261</definedName>
+    <definedName name="A3535215K_Data">Data1!$L$11:$L$261</definedName>
+    <definedName name="A3535215K_Latest">Data1!$L$261</definedName>
+    <definedName name="A3535217R">Data1!$M$1:$M$10,Data1!$M$11:$M$261</definedName>
+    <definedName name="A3535217R_Data">Data1!$M$11:$M$261</definedName>
+    <definedName name="A3535217R_Latest">Data1!$M$261</definedName>
+    <definedName name="A3535224L">Data1!$N$1:$N$10,Data1!$N$11:$N$261</definedName>
+    <definedName name="A3535224L_Data">Data1!$N$11:$N$261</definedName>
+    <definedName name="A3535224L_Latest">Data1!$N$261</definedName>
+    <definedName name="A3535231K">Data1!$O$1:$O$10,Data1!$O$11:$O$261</definedName>
+    <definedName name="A3535231K_Data">Data1!$O$11:$O$261</definedName>
+    <definedName name="A3535231K_Latest">Data1!$O$261</definedName>
+    <definedName name="A3535246A">Data1!$P$1:$P$10,Data1!$P$11:$P$261</definedName>
+    <definedName name="A3535246A_Data">Data1!$P$11:$P$261</definedName>
+    <definedName name="A3535246A_Latest">Data1!$P$261</definedName>
+    <definedName name="A3535247C">Data1!$R$1:$R$10,Data1!$R$11:$R$261</definedName>
+    <definedName name="A3535247C_Data">Data1!$R$11:$R$261</definedName>
+    <definedName name="A3535247C_Latest">Data1!$R$261</definedName>
+    <definedName name="A3535257J">Data1!$S$1:$S$10,Data1!$S$11:$S$261</definedName>
+    <definedName name="A3535257J_Data">Data1!$S$11:$S$261</definedName>
+    <definedName name="A3535257J_Latest">Data1!$S$261</definedName>
+    <definedName name="A3535267L">Data1!$W$1:$W$10,Data1!$W$11:$W$261</definedName>
+    <definedName name="A3535267L_Data">Data1!$W$11:$W$261</definedName>
+    <definedName name="A3535267L_Latest">Data1!$W$261</definedName>
+    <definedName name="A3535268R">Data1!$X$1:$X$10,Data1!$X$11:$X$261</definedName>
+    <definedName name="A3535268R_Data">Data1!$X$11:$X$261</definedName>
+    <definedName name="A3535268R_Latest">Data1!$X$261</definedName>
+    <definedName name="A3535269T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$261</definedName>
+    <definedName name="A3535269T_Data">Data1!$Y$11:$Y$261</definedName>
+    <definedName name="A3535269T_Latest">Data1!$Y$261</definedName>
+    <definedName name="A3535270A">Data1!$T$1:$T$10,Data1!$T$11:$T$261</definedName>
+    <definedName name="A3535270A_Data">Data1!$T$11:$T$261</definedName>
+    <definedName name="A3535270A_Latest">Data1!$T$261</definedName>
+    <definedName name="A3535271C">Data1!$U$1:$U$10,Data1!$U$11:$U$261</definedName>
+    <definedName name="A3535271C_Data">Data1!$U$11:$U$261</definedName>
+    <definedName name="A3535271C_Latest">Data1!$U$261</definedName>
+    <definedName name="A3535272F">Data1!$V$1:$V$10,Data1!$V$11:$V$261</definedName>
+    <definedName name="A3535272F_Data">Data1!$V$11:$V$261</definedName>
+    <definedName name="A3535272F_Latest">Data1!$V$261</definedName>
+    <definedName name="A3535273J">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$261</definedName>
+    <definedName name="A3535273J_Data">Data1!$Z$11:$Z$261</definedName>
+    <definedName name="A3535273J_Latest">Data1!$Z$261</definedName>
+    <definedName name="A3535274K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$261</definedName>
+    <definedName name="A3535274K_Data">Data1!$AE$11:$AE$261</definedName>
+    <definedName name="A3535274K_Latest">Data1!$AE$261</definedName>
+    <definedName name="A3535276R">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$261</definedName>
+    <definedName name="A3535276R_Data">Data1!$AB$11:$AB$261</definedName>
+    <definedName name="A3535276R_Latest">Data1!$AB$261</definedName>
+    <definedName name="A3535277T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$261</definedName>
+    <definedName name="A3535277T_Data">Data1!$AF$11:$AF$261</definedName>
+    <definedName name="A3535277T_Latest">Data1!$AF$261</definedName>
+    <definedName name="A3535279W">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$261</definedName>
+    <definedName name="A3535279W_Data">Data1!$AC$11:$AC$261</definedName>
+    <definedName name="A3535279W_Latest">Data1!$AC$261</definedName>
+    <definedName name="A3535282K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$261</definedName>
+    <definedName name="A3535282K_Data">Data1!$AA$11:$AA$261</definedName>
+    <definedName name="A3535282K_Latest">Data1!$AA$261</definedName>
+    <definedName name="A3535284R">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$261</definedName>
+    <definedName name="A3535284R_Data">Data1!$AG$11:$AG$261</definedName>
+    <definedName name="A3535284R_Latest">Data1!$AG$261</definedName>
+    <definedName name="A3535291L">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$261</definedName>
+    <definedName name="A3535291L_Data">Data1!$AD$11:$AD$261</definedName>
+    <definedName name="A3535291L_Latest">Data1!$AD$261</definedName>
+    <definedName name="A3535297A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$261</definedName>
+    <definedName name="A3535297A_Data">Data1!$AO$11:$AO$261</definedName>
+    <definedName name="A3535297A_Latest">Data1!$AO$261</definedName>
+    <definedName name="A3535299F">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$261</definedName>
+    <definedName name="A3535299F_Data">Data1!$AH$11:$AH$261</definedName>
+    <definedName name="A3535299F_Latest">Data1!$AH$261</definedName>
+    <definedName name="A3535300C">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$261</definedName>
+    <definedName name="A3535300C_Data">Data1!$AI$11:$AI$261</definedName>
+    <definedName name="A3535300C_Latest">Data1!$AI$261</definedName>
+    <definedName name="A3535301F">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$261</definedName>
+    <definedName name="A3535301F_Data">Data1!$AJ$11:$AJ$261</definedName>
+    <definedName name="A3535301F_Latest">Data1!$AJ$261</definedName>
+    <definedName name="A3535303K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$261</definedName>
+    <definedName name="A3535303K_Data">Data1!$AK$11:$AK$261</definedName>
+    <definedName name="A3535303K_Latest">Data1!$AK$261</definedName>
+    <definedName name="A3535310J">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$261</definedName>
+    <definedName name="A3535310J_Data">Data1!$AL$11:$AL$261</definedName>
+    <definedName name="A3535310J_Latest">Data1!$AL$261</definedName>
+    <definedName name="A3535317X">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$261</definedName>
+    <definedName name="A3535317X_Data">Data1!$AM$11:$AM$261</definedName>
+    <definedName name="A3535317X_Latest">Data1!$AM$261</definedName>
+    <definedName name="A3535332W">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$261</definedName>
+    <definedName name="A3535332W_Data">Data1!$AN$11:$AN$261</definedName>
+    <definedName name="A3535332W_Latest">Data1!$AN$261</definedName>
+    <definedName name="A3535333X">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$261</definedName>
+    <definedName name="A3535333X_Data">Data1!$AP$11:$AP$261</definedName>
+    <definedName name="A3535333X_Latest">Data1!$AP$261</definedName>
+    <definedName name="A3535343C">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$261</definedName>
+    <definedName name="A3535343C_Data">Data1!$AQ$11:$AQ$261</definedName>
+    <definedName name="A3535343C_Latest">Data1!$AQ$261</definedName>
+    <definedName name="A3535353J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$261</definedName>
+    <definedName name="A3535353J_Data">Data1!$AU$11:$AU$261</definedName>
+    <definedName name="A3535353J_Latest">Data1!$AU$261</definedName>
+    <definedName name="A3535354K">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$261</definedName>
+    <definedName name="A3535354K_Data">Data1!$AV$11:$AV$261</definedName>
+    <definedName name="A3535354K_Latest">Data1!$AV$261</definedName>
+    <definedName name="A3535355L">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$261</definedName>
+    <definedName name="A3535355L_Data">Data1!$AW$11:$AW$261</definedName>
+    <definedName name="A3535355L_Latest">Data1!$AW$261</definedName>
+    <definedName name="A3535356R">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$261</definedName>
+    <definedName name="A3535356R_Data">Data1!$AR$11:$AR$261</definedName>
+    <definedName name="A3535356R_Latest">Data1!$AR$261</definedName>
+    <definedName name="A3535357T">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$261</definedName>
+    <definedName name="A3535357T_Data">Data1!$AS$11:$AS$261</definedName>
+    <definedName name="A3535357T_Latest">Data1!$AS$261</definedName>
+    <definedName name="A3535358V">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$261</definedName>
+    <definedName name="A3535358V_Data">Data1!$AT$11:$AT$261</definedName>
+    <definedName name="A3535358V_Latest">Data1!$AT$261</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$261</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$261</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -16354,6 +16354,318 @@
       </text>
     </comment>
     <comment ref="AW260" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -17390,10 +17702,10 @@
         <v>21794</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>32</v>
@@ -17422,10 +17734,10 @@
         <v>21794</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>32</v>
@@ -17454,10 +17766,10 @@
         <v>21794</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>32</v>
@@ -17486,10 +17798,10 @@
         <v>21794</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>32</v>
@@ -17518,10 +17830,10 @@
         <v>21794</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>32</v>
@@ -17550,10 +17862,10 @@
         <v>21794</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>32</v>
@@ -17582,10 +17894,10 @@
         <v>21794</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>32</v>
@@ -17614,10 +17926,10 @@
         <v>21794</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>32</v>
@@ -17646,10 +17958,10 @@
         <v>21794</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>32</v>
@@ -17678,10 +17990,10 @@
         <v>21794</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>32</v>
@@ -17710,10 +18022,10 @@
         <v>21794</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>32</v>
@@ -17742,10 +18054,10 @@
         <v>21794</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>32</v>
@@ -17774,10 +18086,10 @@
         <v>21794</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>32</v>
@@ -17806,10 +18118,10 @@
         <v>21794</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>32</v>
@@ -17838,10 +18150,10 @@
         <v>21794</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>32</v>
@@ -17870,10 +18182,10 @@
         <v>21794</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>32</v>
@@ -17902,10 +18214,10 @@
         <v>21794</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>32</v>
@@ -17934,10 +18246,10 @@
         <v>21794</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>32</v>
@@ -17966,10 +18278,10 @@
         <v>21794</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>32</v>
@@ -17998,10 +18310,10 @@
         <v>21794</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>32</v>
@@ -18030,10 +18342,10 @@
         <v>21794</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>32</v>
@@ -18062,10 +18374,10 @@
         <v>21794</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>32</v>
@@ -18094,10 +18406,10 @@
         <v>21794</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>32</v>
@@ -18126,10 +18438,10 @@
         <v>21794</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>32</v>
@@ -18158,10 +18470,10 @@
         <v>21794</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>32</v>
@@ -18190,10 +18502,10 @@
         <v>21794</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>32</v>
@@ -18222,10 +18534,10 @@
         <v>21794</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>32</v>
@@ -18254,10 +18566,10 @@
         <v>21794</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>32</v>
@@ -18286,10 +18598,10 @@
         <v>21794</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>32</v>
@@ -18318,10 +18630,10 @@
         <v>21794</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>32</v>
@@ -18350,10 +18662,10 @@
         <v>21794</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>32</v>
@@ -18382,10 +18694,10 @@
         <v>21794</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>32</v>
@@ -18414,10 +18726,10 @@
         <v>21794</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>32</v>
@@ -18446,10 +18758,10 @@
         <v>21794</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>32</v>
@@ -18478,10 +18790,10 @@
         <v>21794</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>32</v>
@@ -18510,10 +18822,10 @@
         <v>21794</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>32</v>
@@ -18542,10 +18854,10 @@
         <v>21794</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>32</v>
@@ -18574,10 +18886,10 @@
         <v>21794</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>32</v>
@@ -18606,10 +18918,10 @@
         <v>21794</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>32</v>
@@ -18638,10 +18950,10 @@
         <v>21794</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>32</v>
@@ -18670,10 +18982,10 @@
         <v>21794</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>32</v>
@@ -18702,10 +19014,10 @@
         <v>21794</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>32</v>
@@ -18734,10 +19046,10 @@
         <v>21794</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>32</v>
@@ -18766,10 +19078,10 @@
         <v>21794</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>32</v>
@@ -18798,10 +19110,10 @@
         <v>21794</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>32</v>
@@ -18830,10 +19142,10 @@
         <v>21794</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>32</v>
@@ -18862,10 +19174,10 @@
         <v>21794</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>32</v>
@@ -18894,10 +19206,10 @@
         <v>21794</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>32</v>
@@ -18980,7 +19292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW260"/>
+  <dimension ref="A1:AW261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -20039,148 +20351,148 @@
         <v>29</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -20188,148 +20500,148 @@
         <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AD9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AR9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AS9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
@@ -31782,7 +32094,7 @@
         <v>-337</v>
       </c>
       <c r="Z99" s="8">
-        <v>-1825</v>
+        <v>-1824</v>
       </c>
       <c r="AA99" s="8">
         <v>-1222</v>
@@ -31794,7 +32106,7 @@
         <v>-6888</v>
       </c>
       <c r="AD99" s="8">
-        <v>-540</v>
+        <v>-539</v>
       </c>
       <c r="AE99" s="8">
         <v>4722</v>
@@ -31812,7 +32124,7 @@
         <v>24</v>
       </c>
       <c r="AJ99" s="8">
-        <v>-5262</v>
+        <v>-5261</v>
       </c>
       <c r="AK99" s="8">
         <v>-1054</v>
@@ -31821,7 +32133,7 @@
         <v>-1318</v>
       </c>
       <c r="AM99" s="8">
-        <v>-2885</v>
+        <v>-2884</v>
       </c>
       <c r="AN99" s="8">
         <v>-4</v>
@@ -37742,7 +38054,7 @@
         <v>-762</v>
       </c>
       <c r="Z139" s="8">
-        <v>-3176</v>
+        <v>-3175</v>
       </c>
       <c r="AA139" s="8">
         <v>538</v>
@@ -37787,13 +38099,13 @@
         <v>-232</v>
       </c>
       <c r="AO139" s="8">
-        <v>-746</v>
+        <v>-745</v>
       </c>
       <c r="AP139" s="8">
         <v>3648</v>
       </c>
       <c r="AQ139" s="8">
-        <v>-4394</v>
+        <v>-4393</v>
       </c>
       <c r="AR139" s="8">
         <v>-3807</v>
@@ -45123,7 +45435,7 @@
         <v>-12433</v>
       </c>
       <c r="C189" s="8">
-        <v>-6265</v>
+        <v>-6266</v>
       </c>
       <c r="D189" s="8">
         <v>36280</v>
@@ -45272,7 +45584,7 @@
         <v>-12280</v>
       </c>
       <c r="C190" s="8">
-        <v>-5605</v>
+        <v>-5606</v>
       </c>
       <c r="D190" s="8">
         <v>39931</v>
@@ -46315,7 +46627,7 @@
         <v>-13640</v>
       </c>
       <c r="C197" s="8">
-        <v>-3996</v>
+        <v>-3995</v>
       </c>
       <c r="D197" s="8">
         <v>50738</v>
@@ -46548,7 +46860,7 @@
         <v>-4033</v>
       </c>
       <c r="AE198" s="8">
-        <v>41118</v>
+        <v>41117</v>
       </c>
       <c r="AF198" s="8">
         <v>6549</v>
@@ -46622,7 +46934,7 @@
         <v>-57397</v>
       </c>
       <c r="F199" s="8">
-        <v>-3140</v>
+        <v>-3139</v>
       </c>
       <c r="G199" s="8">
         <v>42022</v>
@@ -47138,7 +47450,7 @@
         <v>55309</v>
       </c>
       <c r="AC202" s="8">
-        <v>-61047</v>
+        <v>-61048</v>
       </c>
       <c r="AD202" s="8">
         <v>-5426</v>
@@ -47472,7 +47784,7 @@
         <v>-1804</v>
       </c>
       <c r="AO204" s="8">
-        <v>-978</v>
+        <v>-977</v>
       </c>
       <c r="AP204" s="8">
         <v>13373</v>
@@ -47510,7 +47822,7 @@
         <v>-8251</v>
       </c>
       <c r="D205" s="8">
-        <v>60276</v>
+        <v>60277</v>
       </c>
       <c r="E205" s="8">
         <v>-68528</v>
@@ -47636,7 +47948,7 @@
         <v>12532</v>
       </c>
       <c r="AT205" s="8">
-        <v>-24445</v>
+        <v>-24444</v>
       </c>
       <c r="AU205" s="8">
         <v>-189</v>
@@ -47805,7 +48117,7 @@
         <v>-12665</v>
       </c>
       <c r="C207" s="8">
-        <v>-1797</v>
+        <v>-1796</v>
       </c>
       <c r="D207" s="8">
         <v>73643</v>
@@ -47853,7 +48165,7 @@
         <v>14592</v>
       </c>
       <c r="S207" s="8">
-        <v>-16049</v>
+        <v>-16048</v>
       </c>
       <c r="T207" s="8">
         <v>-10478</v>
@@ -47957,7 +48269,7 @@
         <v>1993</v>
       </c>
       <c r="D208" s="8">
-        <v>79704</v>
+        <v>79703</v>
       </c>
       <c r="E208" s="8">
         <v>-77710</v>
@@ -47972,7 +48284,7 @@
         <v>7827</v>
       </c>
       <c r="I208" s="8">
-        <v>52587</v>
+        <v>52586</v>
       </c>
       <c r="J208" s="8">
         <v>-32</v>
@@ -48002,7 +48314,7 @@
         <v>15039</v>
       </c>
       <c r="S208" s="8">
-        <v>-16120</v>
+        <v>-16119</v>
       </c>
       <c r="T208" s="8">
         <v>-10588</v>
@@ -48154,7 +48466,7 @@
         <v>-15157</v>
       </c>
       <c r="T209" s="8">
-        <v>-10242</v>
+        <v>-10241</v>
       </c>
       <c r="U209" s="8">
         <v>12199</v>
@@ -48282,13 +48594,13 @@
         <v>-48803</v>
       </c>
       <c r="M210" s="8">
-        <v>-15716</v>
+        <v>-15717</v>
       </c>
       <c r="N210" s="8">
         <v>-10744</v>
       </c>
       <c r="O210" s="8">
-        <v>-20530</v>
+        <v>-20529</v>
       </c>
       <c r="P210" s="8">
         <v>-1813</v>
@@ -48309,7 +48621,7 @@
         <v>9671</v>
       </c>
       <c r="V210" s="8">
-        <v>-22342</v>
+        <v>-22343</v>
       </c>
       <c r="W210" s="8">
         <v>-471</v>
@@ -48398,7 +48710,7 @@
         <v>40057</v>
       </c>
       <c r="B211" s="8">
-        <v>-16504</v>
+        <v>-16503</v>
       </c>
       <c r="C211" s="8">
         <v>-5040</v>
@@ -48410,7 +48722,7 @@
         <v>-64124</v>
       </c>
       <c r="F211" s="8">
-        <v>-4949</v>
+        <v>-4948</v>
       </c>
       <c r="G211" s="8">
         <v>45099</v>
@@ -48547,28 +48859,28 @@
         <v>40148</v>
       </c>
       <c r="B212" s="8">
-        <v>-20596</v>
+        <v>-20597</v>
       </c>
       <c r="C212" s="8">
-        <v>-6224</v>
+        <v>-6225</v>
       </c>
       <c r="D212" s="8">
         <v>59769</v>
       </c>
       <c r="E212" s="8">
-        <v>-65994</v>
+        <v>-65993</v>
       </c>
       <c r="F212" s="8">
-        <v>-5629</v>
+        <v>-5630</v>
       </c>
       <c r="G212" s="8">
-        <v>45667</v>
+        <v>45666</v>
       </c>
       <c r="H212" s="8">
         <v>6035</v>
       </c>
       <c r="I212" s="8">
-        <v>36247</v>
+        <v>36246</v>
       </c>
       <c r="J212" s="8">
         <v>29</v>
@@ -48607,7 +48919,7 @@
         <v>7783</v>
       </c>
       <c r="V212" s="8">
-        <v>-21784</v>
+        <v>-21785</v>
       </c>
       <c r="W212" s="8">
         <v>-371</v>
@@ -48696,7 +49008,7 @@
         <v>40238</v>
       </c>
       <c r="B213" s="8">
-        <v>-17822</v>
+        <v>-17821</v>
       </c>
       <c r="C213" s="8">
         <v>-3363</v>
@@ -48711,7 +49023,7 @@
         <v>-2288</v>
       </c>
       <c r="G213" s="8">
-        <v>50941</v>
+        <v>50942</v>
       </c>
       <c r="H213" s="8">
         <v>6511</v>
@@ -48735,7 +49047,7 @@
         <v>-12361</v>
       </c>
       <c r="O213" s="8">
-        <v>-22653</v>
+        <v>-22654</v>
       </c>
       <c r="P213" s="8">
         <v>-1393</v>
@@ -48780,7 +49092,7 @@
         <v>-68608</v>
       </c>
       <c r="AD213" s="8">
-        <v>-1828</v>
+        <v>-1827</v>
       </c>
       <c r="AE213" s="8">
         <v>51654</v>
@@ -48804,7 +49116,7 @@
         <v>-16935</v>
       </c>
       <c r="AL213" s="8">
-        <v>-12411</v>
+        <v>-12410</v>
       </c>
       <c r="AM213" s="8">
         <v>-22443</v>
@@ -48828,7 +49140,7 @@
         <v>10222</v>
       </c>
       <c r="AT213" s="8">
-        <v>-22723</v>
+        <v>-22722</v>
       </c>
       <c r="AU213" s="8">
         <v>-526</v>
@@ -48848,19 +49160,19 @@
         <v>-9978</v>
       </c>
       <c r="C214" s="8">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D214" s="8">
         <v>74378</v>
       </c>
       <c r="E214" s="8">
-        <v>-71895</v>
+        <v>-71896</v>
       </c>
       <c r="F214" s="8">
         <v>3879</v>
       </c>
       <c r="G214" s="8">
-        <v>60178</v>
+        <v>60179</v>
       </c>
       <c r="H214" s="8">
         <v>6732</v>
@@ -48890,7 +49202,7 @@
         <v>-2357</v>
       </c>
       <c r="Q214" s="8">
-        <v>-1396</v>
+        <v>-1397</v>
       </c>
       <c r="R214" s="8">
         <v>14199</v>
@@ -48938,7 +49250,7 @@
         <v>6753</v>
       </c>
       <c r="AG214" s="8">
-        <v>46715</v>
+        <v>46716</v>
       </c>
       <c r="AH214" s="8">
         <v>58</v>
@@ -48956,7 +49268,7 @@
         <v>-12867</v>
       </c>
       <c r="AM214" s="8">
-        <v>-22840</v>
+        <v>-22839</v>
       </c>
       <c r="AN214" s="8">
         <v>-1766</v>
@@ -48994,10 +49306,10 @@
         <v>40422</v>
       </c>
       <c r="B215" s="8">
-        <v>-10591</v>
+        <v>-10590</v>
       </c>
       <c r="C215" s="8">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D215" s="8">
         <v>74654</v>
@@ -49006,7 +49318,7 @@
         <v>-71044</v>
       </c>
       <c r="F215" s="8">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="G215" s="8">
         <v>60210</v>
@@ -49039,7 +49351,7 @@
         <v>-1193</v>
       </c>
       <c r="Q215" s="8">
-        <v>-1434</v>
+        <v>-1433</v>
       </c>
       <c r="R215" s="8">
         <v>14444</v>
@@ -49143,28 +49455,28 @@
         <v>40513</v>
       </c>
       <c r="B216" s="8">
-        <v>-11541</v>
+        <v>-11542</v>
       </c>
       <c r="C216" s="8">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="D216" s="8">
-        <v>74893</v>
+        <v>74892</v>
       </c>
       <c r="E216" s="8">
-        <v>-71171</v>
+        <v>-71170</v>
       </c>
       <c r="F216" s="8">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="G216" s="8">
-        <v>60628</v>
+        <v>60627</v>
       </c>
       <c r="H216" s="8">
         <v>7175</v>
       </c>
       <c r="I216" s="8">
-        <v>49494</v>
+        <v>49493</v>
       </c>
       <c r="J216" s="8">
         <v>75</v>
@@ -49176,7 +49488,7 @@
         <v>-55114</v>
       </c>
       <c r="M216" s="8">
-        <v>-17393</v>
+        <v>-17392</v>
       </c>
       <c r="N216" s="8">
         <v>-13203</v>
@@ -49292,7 +49604,7 @@
         <v>40603</v>
       </c>
       <c r="B217" s="8">
-        <v>-12125</v>
+        <v>-12124</v>
       </c>
       <c r="C217" s="8">
         <v>2894</v>
@@ -49304,7 +49616,7 @@
         <v>-72547</v>
       </c>
       <c r="F217" s="8">
-        <v>5120</v>
+        <v>5121</v>
       </c>
       <c r="G217" s="8">
         <v>61488</v>
@@ -49313,7 +49625,7 @@
         <v>7689</v>
       </c>
       <c r="I217" s="8">
-        <v>50008</v>
+        <v>50009</v>
       </c>
       <c r="J217" s="8">
         <v>67</v>
@@ -49322,7 +49634,7 @@
         <v>3723</v>
       </c>
       <c r="L217" s="8">
-        <v>-56367</v>
+        <v>-56368</v>
       </c>
       <c r="M217" s="8">
         <v>-16877</v>
@@ -49331,7 +49643,7 @@
         <v>-13415</v>
       </c>
       <c r="O217" s="8">
-        <v>-25027</v>
+        <v>-25028</v>
       </c>
       <c r="P217" s="8">
         <v>-1048</v>
@@ -49352,7 +49664,7 @@
         <v>10690</v>
       </c>
       <c r="V217" s="8">
-        <v>-25013</v>
+        <v>-25012</v>
       </c>
       <c r="W217" s="8">
         <v>-696</v>
@@ -49367,13 +49679,13 @@
         <v>-10679</v>
       </c>
       <c r="AA217" s="8">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="AB217" s="8">
-        <v>77390</v>
+        <v>77391</v>
       </c>
       <c r="AC217" s="8">
-        <v>-72720</v>
+        <v>-72719</v>
       </c>
       <c r="AD217" s="8">
         <v>6630</v>
@@ -49403,7 +49715,7 @@
         <v>-13359</v>
       </c>
       <c r="AM217" s="8">
-        <v>-24918</v>
+        <v>-24917</v>
       </c>
       <c r="AN217" s="8">
         <v>-1141</v>
@@ -49444,25 +49756,25 @@
         <v>-11308</v>
       </c>
       <c r="C218" s="8">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="D218" s="8">
-        <v>78766</v>
+        <v>78767</v>
       </c>
       <c r="E218" s="8">
         <v>-74703</v>
       </c>
       <c r="F218" s="8">
-        <v>5927</v>
+        <v>5928</v>
       </c>
       <c r="G218" s="8">
-        <v>64303</v>
+        <v>64304</v>
       </c>
       <c r="H218" s="8">
         <v>8377</v>
       </c>
       <c r="I218" s="8">
-        <v>52497</v>
+        <v>52498</v>
       </c>
       <c r="J218" s="8">
         <v>6</v>
@@ -49471,7 +49783,7 @@
         <v>3423</v>
       </c>
       <c r="L218" s="8">
-        <v>-58377</v>
+        <v>-58376</v>
       </c>
       <c r="M218" s="8">
         <v>-16623</v>
@@ -49501,7 +49813,7 @@
         <v>11294</v>
       </c>
       <c r="V218" s="8">
-        <v>-25685</v>
+        <v>-25686</v>
       </c>
       <c r="W218" s="8">
         <v>-980</v>
@@ -49513,19 +49825,19 @@
         <v>-2632</v>
       </c>
       <c r="Z218" s="8">
-        <v>-9331</v>
+        <v>-9332</v>
       </c>
       <c r="AA218" s="8">
-        <v>5537</v>
+        <v>5536</v>
       </c>
       <c r="AB218" s="8">
         <v>80441</v>
       </c>
       <c r="AC218" s="8">
-        <v>-74904</v>
+        <v>-74905</v>
       </c>
       <c r="AD218" s="8">
-        <v>7651</v>
+        <v>7650</v>
       </c>
       <c r="AE218" s="8">
         <v>66193</v>
@@ -49543,7 +49855,7 @@
         <v>3875</v>
       </c>
       <c r="AJ218" s="8">
-        <v>-58542</v>
+        <v>-58543</v>
       </c>
       <c r="AK218" s="8">
         <v>-17264</v>
@@ -49552,7 +49864,7 @@
         <v>-13748</v>
       </c>
       <c r="AM218" s="8">
-        <v>-26199</v>
+        <v>-26200</v>
       </c>
       <c r="AN218" s="8">
         <v>-1331</v>
@@ -49590,13 +49902,13 @@
         <v>40787</v>
       </c>
       <c r="B219" s="8">
-        <v>-9537</v>
+        <v>-9536</v>
       </c>
       <c r="C219" s="8">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="D219" s="8">
-        <v>82867</v>
+        <v>82868</v>
       </c>
       <c r="E219" s="8">
         <v>-78840</v>
@@ -49629,7 +49941,7 @@
         <v>-16058</v>
       </c>
       <c r="O219" s="8">
-        <v>-26640</v>
+        <v>-26639</v>
       </c>
       <c r="P219" s="8">
         <v>-1680</v>
@@ -49647,10 +49959,10 @@
         <v>-12753</v>
       </c>
       <c r="U219" s="8">
-        <v>11889</v>
+        <v>11890</v>
       </c>
       <c r="V219" s="8">
-        <v>-24642</v>
+        <v>-24643</v>
       </c>
       <c r="W219" s="8">
         <v>-811</v>
@@ -49662,22 +49974,22 @@
         <v>-2481</v>
       </c>
       <c r="Z219" s="8">
-        <v>-10059</v>
+        <v>-10060</v>
       </c>
       <c r="AA219" s="8">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="AB219" s="8">
         <v>81954</v>
       </c>
       <c r="AC219" s="8">
-        <v>-78089</v>
+        <v>-78090</v>
       </c>
       <c r="AD219" s="8">
-        <v>6219</v>
+        <v>6218</v>
       </c>
       <c r="AE219" s="8">
-        <v>67716</v>
+        <v>67715</v>
       </c>
       <c r="AF219" s="8">
         <v>8720</v>
@@ -49692,7 +50004,7 @@
         <v>4037</v>
       </c>
       <c r="AJ219" s="8">
-        <v>-61496</v>
+        <v>-61497</v>
       </c>
       <c r="AK219" s="8">
         <v>-17625</v>
@@ -49701,7 +50013,7 @@
         <v>-15283</v>
       </c>
       <c r="AM219" s="8">
-        <v>-26975</v>
+        <v>-26976</v>
       </c>
       <c r="AN219" s="8">
         <v>-1613</v>
@@ -49710,7 +50022,7 @@
         <v>-2354</v>
       </c>
       <c r="AP219" s="8">
-        <v>14238</v>
+        <v>14239</v>
       </c>
       <c r="AQ219" s="8">
         <v>-16593</v>
@@ -49739,28 +50051,28 @@
         <v>40878</v>
       </c>
       <c r="B220" s="8">
-        <v>-10950</v>
+        <v>-10957</v>
       </c>
       <c r="C220" s="8">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="D220" s="8">
-        <v>82949</v>
+        <v>82947</v>
       </c>
       <c r="E220" s="8">
-        <v>-81088</v>
+        <v>-81094</v>
       </c>
       <c r="F220" s="8">
-        <v>4594</v>
+        <v>4586</v>
       </c>
       <c r="G220" s="8">
-        <v>68818</v>
+        <v>68816</v>
       </c>
       <c r="H220" s="8">
         <v>9097</v>
       </c>
       <c r="I220" s="8">
-        <v>55096</v>
+        <v>55094</v>
       </c>
       <c r="J220" s="8">
         <v>105</v>
@@ -49769,7 +50081,7 @@
         <v>4520</v>
       </c>
       <c r="L220" s="8">
-        <v>-64224</v>
+        <v>-64230</v>
       </c>
       <c r="M220" s="8">
         <v>-17968</v>
@@ -49778,7 +50090,7 @@
         <v>-16831</v>
       </c>
       <c r="O220" s="8">
-        <v>-27349</v>
+        <v>-27355</v>
       </c>
       <c r="P220" s="8">
         <v>-2077</v>
@@ -49787,7 +50099,7 @@
         <v>-2733</v>
       </c>
       <c r="R220" s="8">
-        <v>14130</v>
+        <v>14131</v>
       </c>
       <c r="S220" s="8">
         <v>-16864</v>
@@ -49811,19 +50123,19 @@
         <v>-2313</v>
       </c>
       <c r="Z220" s="8">
-        <v>-11486</v>
+        <v>-11482</v>
       </c>
       <c r="AA220" s="8">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="AB220" s="8">
-        <v>81245</v>
+        <v>81244</v>
       </c>
       <c r="AC220" s="8">
-        <v>-79998</v>
+        <v>-79994</v>
       </c>
       <c r="AD220" s="8">
-        <v>3945</v>
+        <v>3949</v>
       </c>
       <c r="AE220" s="8">
         <v>67079</v>
@@ -49832,7 +50144,7 @@
         <v>8734</v>
       </c>
       <c r="AG220" s="8">
-        <v>54160</v>
+        <v>54159</v>
       </c>
       <c r="AH220" s="8">
         <v>59</v>
@@ -49841,7 +50153,7 @@
         <v>4126</v>
       </c>
       <c r="AJ220" s="8">
-        <v>-63135</v>
+        <v>-63130</v>
       </c>
       <c r="AK220" s="8">
         <v>-18014</v>
@@ -49850,7 +50162,7 @@
         <v>-16104</v>
       </c>
       <c r="AM220" s="8">
-        <v>-27226</v>
+        <v>-27222</v>
       </c>
       <c r="AN220" s="8">
         <v>-1790</v>
@@ -49888,19 +50200,19 @@
         <v>40969</v>
       </c>
       <c r="B221" s="8">
-        <v>-17405</v>
+        <v>-17385</v>
       </c>
       <c r="C221" s="8">
-        <v>-5760</v>
+        <v>-5741</v>
       </c>
       <c r="D221" s="8">
-        <v>75778</v>
+        <v>75777</v>
       </c>
       <c r="E221" s="8">
-        <v>-81538</v>
+        <v>-81518</v>
       </c>
       <c r="F221" s="8">
-        <v>-2663</v>
+        <v>-2644</v>
       </c>
       <c r="G221" s="8">
         <v>61773</v>
@@ -49918,16 +50230,16 @@
         <v>3386</v>
       </c>
       <c r="L221" s="8">
-        <v>-64436</v>
+        <v>-64416</v>
       </c>
       <c r="M221" s="8">
-        <v>-18186</v>
+        <v>-18185</v>
       </c>
       <c r="N221" s="8">
-        <v>-17361</v>
+        <v>-17360</v>
       </c>
       <c r="O221" s="8">
-        <v>-27382</v>
+        <v>-27362</v>
       </c>
       <c r="P221" s="8">
         <v>-1508</v>
@@ -49939,7 +50251,7 @@
         <v>14005</v>
       </c>
       <c r="S221" s="8">
-        <v>-17102</v>
+        <v>-17101</v>
       </c>
       <c r="T221" s="8">
         <v>-10798</v>
@@ -49948,7 +50260,7 @@
         <v>11909</v>
       </c>
       <c r="V221" s="8">
-        <v>-22708</v>
+        <v>-22707</v>
       </c>
       <c r="W221" s="8">
         <v>-847</v>
@@ -49960,19 +50272,19 @@
         <v>-2442</v>
       </c>
       <c r="Z221" s="8">
-        <v>-14431</v>
+        <v>-14423</v>
       </c>
       <c r="AA221" s="8">
-        <v>-2902</v>
+        <v>-2894</v>
       </c>
       <c r="AB221" s="8">
         <v>79238</v>
       </c>
       <c r="AC221" s="8">
-        <v>-82140</v>
+        <v>-82132</v>
       </c>
       <c r="AD221" s="8">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AE221" s="8">
         <v>65115</v>
@@ -49981,7 +50293,7 @@
         <v>8607</v>
       </c>
       <c r="AG221" s="8">
-        <v>52369</v>
+        <v>52370</v>
       </c>
       <c r="AH221" s="8">
         <v>73</v>
@@ -49990,7 +50302,7 @@
         <v>4066</v>
       </c>
       <c r="AJ221" s="8">
-        <v>-64985</v>
+        <v>-64978</v>
       </c>
       <c r="AK221" s="8">
         <v>-18193</v>
@@ -49999,7 +50311,7 @@
         <v>-17692</v>
       </c>
       <c r="AM221" s="8">
-        <v>-27395</v>
+        <v>-27387</v>
       </c>
       <c r="AN221" s="8">
         <v>-1706</v>
@@ -50011,7 +50323,7 @@
         <v>14123</v>
       </c>
       <c r="AQ221" s="8">
-        <v>-17155</v>
+        <v>-17154</v>
       </c>
       <c r="AR221" s="8">
         <v>-10797</v>
@@ -50037,28 +50349,28 @@
         <v>41061</v>
       </c>
       <c r="B222" s="8">
-        <v>-14099</v>
+        <v>-14093</v>
       </c>
       <c r="C222" s="8">
-        <v>-3547</v>
+        <v>-3541</v>
       </c>
       <c r="D222" s="8">
-        <v>79812</v>
+        <v>79815</v>
       </c>
       <c r="E222" s="8">
-        <v>-83359</v>
+        <v>-83356</v>
       </c>
       <c r="F222" s="8">
-        <v>-267</v>
+        <v>-261</v>
       </c>
       <c r="G222" s="8">
-        <v>65452</v>
+        <v>65455</v>
       </c>
       <c r="H222" s="8">
         <v>8781</v>
       </c>
       <c r="I222" s="8">
-        <v>52196</v>
+        <v>52199</v>
       </c>
       <c r="J222" s="8">
         <v>35</v>
@@ -50067,7 +50379,7 @@
         <v>4440</v>
       </c>
       <c r="L222" s="8">
-        <v>-65719</v>
+        <v>-65716</v>
       </c>
       <c r="M222" s="8">
         <v>-18455</v>
@@ -50076,7 +50388,7 @@
         <v>-18223</v>
       </c>
       <c r="O222" s="8">
-        <v>-27598</v>
+        <v>-27596</v>
       </c>
       <c r="P222" s="8">
         <v>-1443</v>
@@ -50109,28 +50421,28 @@
         <v>-2378</v>
       </c>
       <c r="Z222" s="8">
-        <v>-16008</v>
+        <v>-16007</v>
       </c>
       <c r="AA222" s="8">
-        <v>-5236</v>
+        <v>-5234</v>
       </c>
       <c r="AB222" s="8">
-        <v>77311</v>
+        <v>77312</v>
       </c>
       <c r="AC222" s="8">
-        <v>-82547</v>
+        <v>-82546</v>
       </c>
       <c r="AD222" s="8">
-        <v>-1813</v>
+        <v>-1811</v>
       </c>
       <c r="AE222" s="8">
-        <v>63113</v>
+        <v>63114</v>
       </c>
       <c r="AF222" s="8">
-        <v>8632</v>
+        <v>8633</v>
       </c>
       <c r="AG222" s="8">
-        <v>50353</v>
+        <v>50354</v>
       </c>
       <c r="AH222" s="8">
         <v>59</v>
@@ -50139,7 +50451,7 @@
         <v>4068</v>
       </c>
       <c r="AJ222" s="8">
-        <v>-64926</v>
+        <v>-64925</v>
       </c>
       <c r="AK222" s="8">
         <v>-18268</v>
@@ -50186,28 +50498,28 @@
         <v>41153</v>
       </c>
       <c r="B223" s="8">
-        <v>-16486</v>
+        <v>-16500</v>
       </c>
       <c r="C223" s="8">
-        <v>-6306</v>
+        <v>-6321</v>
       </c>
       <c r="D223" s="8">
         <v>75457</v>
       </c>
       <c r="E223" s="8">
-        <v>-81764</v>
+        <v>-81777</v>
       </c>
       <c r="F223" s="8">
-        <v>-2365</v>
+        <v>-2379</v>
       </c>
       <c r="G223" s="8">
-        <v>61267</v>
+        <v>61266</v>
       </c>
       <c r="H223" s="8">
         <v>8841</v>
       </c>
       <c r="I223" s="8">
-        <v>48278</v>
+        <v>48276</v>
       </c>
       <c r="J223" s="8">
         <v>57</v>
@@ -50216,16 +50528,16 @@
         <v>4092</v>
       </c>
       <c r="L223" s="8">
-        <v>-63632</v>
+        <v>-63645</v>
       </c>
       <c r="M223" s="8">
         <v>-18117</v>
       </c>
       <c r="N223" s="8">
-        <v>-16485</v>
+        <v>-16486</v>
       </c>
       <c r="O223" s="8">
-        <v>-27428</v>
+        <v>-27440</v>
       </c>
       <c r="P223" s="8">
         <v>-1602</v>
@@ -50240,13 +50552,13 @@
         <v>-18132</v>
       </c>
       <c r="T223" s="8">
-        <v>-9479</v>
+        <v>-9480</v>
       </c>
       <c r="U223" s="8">
         <v>11710</v>
       </c>
       <c r="V223" s="8">
-        <v>-21189</v>
+        <v>-21190</v>
       </c>
       <c r="W223" s="8">
         <v>-700</v>
@@ -50258,19 +50570,19 @@
         <v>-2310</v>
       </c>
       <c r="Z223" s="8">
-        <v>-16494</v>
+        <v>-16500</v>
       </c>
       <c r="AA223" s="8">
-        <v>-6188</v>
+        <v>-6193</v>
       </c>
       <c r="AB223" s="8">
         <v>76139</v>
       </c>
       <c r="AC223" s="8">
-        <v>-82327</v>
+        <v>-82332</v>
       </c>
       <c r="AD223" s="8">
-        <v>-2289</v>
+        <v>-2295</v>
       </c>
       <c r="AE223" s="8">
         <v>61819</v>
@@ -50288,7 +50600,7 @@
         <v>4198</v>
       </c>
       <c r="AJ223" s="8">
-        <v>-64109</v>
+        <v>-64114</v>
       </c>
       <c r="AK223" s="8">
         <v>-18421</v>
@@ -50297,13 +50609,13 @@
         <v>-16747</v>
       </c>
       <c r="AM223" s="8">
-        <v>-27521</v>
+        <v>-27526</v>
       </c>
       <c r="AN223" s="8">
         <v>-1420</v>
       </c>
       <c r="AO223" s="8">
-        <v>-3898</v>
+        <v>-3899</v>
       </c>
       <c r="AP223" s="8">
         <v>14319</v>
@@ -50335,28 +50647,28 @@
         <v>41244</v>
       </c>
       <c r="B224" s="8">
-        <v>-17998</v>
+        <v>-18011</v>
       </c>
       <c r="C224" s="8">
-        <v>-7288</v>
+        <v>-7302</v>
       </c>
       <c r="D224" s="8">
-        <v>75462</v>
+        <v>75460</v>
       </c>
       <c r="E224" s="8">
-        <v>-82750</v>
+        <v>-82762</v>
       </c>
       <c r="F224" s="8">
-        <v>-2630</v>
+        <v>-2643</v>
       </c>
       <c r="G224" s="8">
-        <v>61029</v>
+        <v>61027</v>
       </c>
       <c r="H224" s="8">
         <v>9036</v>
       </c>
       <c r="I224" s="8">
-        <v>47600</v>
+        <v>47598</v>
       </c>
       <c r="J224" s="8">
         <v>52</v>
@@ -50365,7 +50677,7 @@
         <v>4341</v>
       </c>
       <c r="L224" s="8">
-        <v>-63659</v>
+        <v>-63670</v>
       </c>
       <c r="M224" s="8">
         <v>-18786</v>
@@ -50374,28 +50686,28 @@
         <v>-16060</v>
       </c>
       <c r="O224" s="8">
-        <v>-27525</v>
+        <v>-27536</v>
       </c>
       <c r="P224" s="8">
         <v>-1288</v>
       </c>
       <c r="Q224" s="8">
-        <v>-4658</v>
+        <v>-4659</v>
       </c>
       <c r="R224" s="8">
         <v>14433</v>
       </c>
       <c r="S224" s="8">
-        <v>-19091</v>
+        <v>-19092</v>
       </c>
       <c r="T224" s="8">
         <v>-9842</v>
       </c>
       <c r="U224" s="8">
-        <v>10961</v>
+        <v>10962</v>
       </c>
       <c r="V224" s="8">
-        <v>-20803</v>
+        <v>-20804</v>
       </c>
       <c r="W224" s="8">
         <v>-867</v>
@@ -50407,19 +50719,19 @@
         <v>-2476</v>
       </c>
       <c r="Z224" s="8">
-        <v>-15985</v>
+        <v>-15988</v>
       </c>
       <c r="AA224" s="8">
-        <v>-5788</v>
+        <v>-5790</v>
       </c>
       <c r="AB224" s="8">
-        <v>75828</v>
+        <v>75827</v>
       </c>
       <c r="AC224" s="8">
-        <v>-81616</v>
+        <v>-81617</v>
       </c>
       <c r="AD224" s="8">
-        <v>-1461</v>
+        <v>-1463</v>
       </c>
       <c r="AE224" s="8">
         <v>61367</v>
@@ -50428,7 +50740,7 @@
         <v>8973</v>
       </c>
       <c r="AG224" s="8">
-        <v>48113</v>
+        <v>48112</v>
       </c>
       <c r="AH224" s="8">
         <v>60</v>
@@ -50437,7 +50749,7 @@
         <v>4222</v>
       </c>
       <c r="AJ224" s="8">
-        <v>-62828</v>
+        <v>-62829</v>
       </c>
       <c r="AK224" s="8">
         <v>-18648</v>
@@ -50446,7 +50758,7 @@
         <v>-15680</v>
       </c>
       <c r="AM224" s="8">
-        <v>-27195</v>
+        <v>-27196</v>
       </c>
       <c r="AN224" s="8">
         <v>-1305</v>
@@ -50455,13 +50767,13 @@
         <v>-4327</v>
       </c>
       <c r="AP224" s="8">
-        <v>14461</v>
+        <v>14460</v>
       </c>
       <c r="AQ224" s="8">
         <v>-18788</v>
       </c>
       <c r="AR224" s="8">
-        <v>-9401</v>
+        <v>-9400</v>
       </c>
       <c r="AS224" s="8">
         <v>11408</v>
@@ -50484,19 +50796,19 @@
         <v>41334</v>
       </c>
       <c r="B225" s="8">
-        <v>-13619</v>
+        <v>-13594</v>
       </c>
       <c r="C225" s="8">
-        <v>-3817</v>
+        <v>-3794</v>
       </c>
       <c r="D225" s="8">
-        <v>76468</v>
+        <v>76467</v>
       </c>
       <c r="E225" s="8">
-        <v>-80285</v>
+        <v>-80260</v>
       </c>
       <c r="F225" s="8">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="G225" s="8">
         <v>61731</v>
@@ -50505,7 +50817,7 @@
         <v>8908</v>
       </c>
       <c r="I225" s="8">
-        <v>48864</v>
+        <v>48863</v>
       </c>
       <c r="J225" s="8">
         <v>83</v>
@@ -50514,7 +50826,7 @@
         <v>3877</v>
       </c>
       <c r="L225" s="8">
-        <v>-61264</v>
+        <v>-61240</v>
       </c>
       <c r="M225" s="8">
         <v>-19127</v>
@@ -50523,28 +50835,28 @@
         <v>-14300</v>
       </c>
       <c r="O225" s="8">
-        <v>-26783</v>
+        <v>-26760</v>
       </c>
       <c r="P225" s="8">
         <v>-1054</v>
       </c>
       <c r="Q225" s="8">
-        <v>-4285</v>
+        <v>-4284</v>
       </c>
       <c r="R225" s="8">
-        <v>14737</v>
+        <v>14736</v>
       </c>
       <c r="S225" s="8">
-        <v>-19021</v>
+        <v>-19020</v>
       </c>
       <c r="T225" s="8">
-        <v>-9018</v>
+        <v>-9017</v>
       </c>
       <c r="U225" s="8">
-        <v>11790</v>
+        <v>11789</v>
       </c>
       <c r="V225" s="8">
-        <v>-20807</v>
+        <v>-20806</v>
       </c>
       <c r="W225" s="8">
         <v>-784</v>
@@ -50556,28 +50868,28 @@
         <v>-2382</v>
       </c>
       <c r="Z225" s="8">
-        <v>-15248</v>
+        <v>-15241</v>
       </c>
       <c r="AA225" s="8">
-        <v>-4829</v>
+        <v>-4821</v>
       </c>
       <c r="AB225" s="8">
-        <v>76838</v>
+        <v>76839</v>
       </c>
       <c r="AC225" s="8">
-        <v>-81667</v>
+        <v>-81660</v>
       </c>
       <c r="AD225" s="8">
-        <v>-253</v>
+        <v>-246</v>
       </c>
       <c r="AE225" s="8">
-        <v>62175</v>
+        <v>62176</v>
       </c>
       <c r="AF225" s="8">
         <v>9120</v>
       </c>
       <c r="AG225" s="8">
-        <v>48985</v>
+        <v>48986</v>
       </c>
       <c r="AH225" s="8">
         <v>78</v>
@@ -50586,7 +50898,7 @@
         <v>3992</v>
       </c>
       <c r="AJ225" s="8">
-        <v>-62429</v>
+        <v>-62422</v>
       </c>
       <c r="AK225" s="8">
         <v>-19039</v>
@@ -50595,7 +50907,7 @@
         <v>-15267</v>
       </c>
       <c r="AM225" s="8">
-        <v>-26926</v>
+        <v>-26920</v>
       </c>
       <c r="AN225" s="8">
         <v>-1196</v>
@@ -50633,28 +50945,28 @@
         <v>41426</v>
       </c>
       <c r="B226" s="8">
-        <v>-13689</v>
+        <v>-13681</v>
       </c>
       <c r="C226" s="8">
-        <v>-2698</v>
+        <v>-2689</v>
       </c>
       <c r="D226" s="8">
-        <v>79908</v>
+        <v>79914</v>
       </c>
       <c r="E226" s="8">
-        <v>-82606</v>
+        <v>-82603</v>
       </c>
       <c r="F226" s="8">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="G226" s="8">
-        <v>65019</v>
+        <v>65024</v>
       </c>
       <c r="H226" s="8">
         <v>9522</v>
       </c>
       <c r="I226" s="8">
-        <v>51487</v>
+        <v>51492</v>
       </c>
       <c r="J226" s="8">
         <v>85</v>
@@ -50663,25 +50975,25 @@
         <v>3925</v>
       </c>
       <c r="L226" s="8">
-        <v>-62995</v>
+        <v>-62992</v>
       </c>
       <c r="M226" s="8">
-        <v>-19213</v>
+        <v>-19214</v>
       </c>
       <c r="N226" s="8">
-        <v>-15905</v>
+        <v>-15904</v>
       </c>
       <c r="O226" s="8">
-        <v>-26652</v>
+        <v>-26649</v>
       </c>
       <c r="P226" s="8">
         <v>-1225</v>
       </c>
       <c r="Q226" s="8">
-        <v>-4722</v>
+        <v>-4721</v>
       </c>
       <c r="R226" s="8">
-        <v>14889</v>
+        <v>14890</v>
       </c>
       <c r="S226" s="8">
         <v>-19611</v>
@@ -50690,7 +51002,7 @@
         <v>-10048</v>
       </c>
       <c r="U226" s="8">
-        <v>12112</v>
+        <v>12113</v>
       </c>
       <c r="V226" s="8">
         <v>-22161</v>
@@ -50705,28 +51017,28 @@
         <v>-2601</v>
       </c>
       <c r="Z226" s="8">
-        <v>-13856</v>
+        <v>-13853</v>
       </c>
       <c r="AA226" s="8">
-        <v>-3156</v>
+        <v>-3153</v>
       </c>
       <c r="AB226" s="8">
-        <v>79624</v>
+        <v>79625</v>
       </c>
       <c r="AC226" s="8">
-        <v>-82780</v>
+        <v>-82779</v>
       </c>
       <c r="AD226" s="8">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="AE226" s="8">
-        <v>64637</v>
+        <v>64638</v>
       </c>
       <c r="AF226" s="8">
         <v>9337</v>
       </c>
       <c r="AG226" s="8">
-        <v>51438</v>
+        <v>51439</v>
       </c>
       <c r="AH226" s="8">
         <v>87</v>
@@ -50735,7 +51047,7 @@
         <v>3775</v>
       </c>
       <c r="AJ226" s="8">
-        <v>-63251</v>
+        <v>-63249</v>
       </c>
       <c r="AK226" s="8">
         <v>-19471</v>
@@ -50744,7 +51056,7 @@
         <v>-15495</v>
       </c>
       <c r="AM226" s="8">
-        <v>-27109</v>
+        <v>-27108</v>
       </c>
       <c r="AN226" s="8">
         <v>-1175</v>
@@ -50782,28 +51094,28 @@
         <v>41518</v>
       </c>
       <c r="B227" s="8">
-        <v>-14440</v>
+        <v>-14458</v>
       </c>
       <c r="C227" s="8">
-        <v>-3020</v>
+        <v>-3036</v>
       </c>
       <c r="D227" s="8">
-        <v>83018</v>
+        <v>83016</v>
       </c>
       <c r="E227" s="8">
-        <v>-86037</v>
+        <v>-86053</v>
       </c>
       <c r="F227" s="8">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="G227" s="8">
-        <v>67643</v>
+        <v>67642</v>
       </c>
       <c r="H227" s="8">
         <v>9643</v>
       </c>
       <c r="I227" s="8">
-        <v>54469</v>
+        <v>54467</v>
       </c>
       <c r="J227" s="8">
         <v>92</v>
@@ -50812,37 +51124,37 @@
         <v>3440</v>
       </c>
       <c r="L227" s="8">
-        <v>-66338</v>
+        <v>-66353</v>
       </c>
       <c r="M227" s="8">
         <v>-20193</v>
       </c>
       <c r="N227" s="8">
-        <v>-16461</v>
+        <v>-16462</v>
       </c>
       <c r="O227" s="8">
-        <v>-28415</v>
+        <v>-28429</v>
       </c>
       <c r="P227" s="8">
         <v>-1269</v>
       </c>
       <c r="Q227" s="8">
-        <v>-4325</v>
+        <v>-4326</v>
       </c>
       <c r="R227" s="8">
         <v>15374</v>
       </c>
       <c r="S227" s="8">
-        <v>-19699</v>
+        <v>-19700</v>
       </c>
       <c r="T227" s="8">
-        <v>-10645</v>
+        <v>-10646</v>
       </c>
       <c r="U227" s="8">
-        <v>11752</v>
+        <v>11751</v>
       </c>
       <c r="V227" s="8">
-        <v>-22397</v>
+        <v>-22398</v>
       </c>
       <c r="W227" s="8">
         <v>-776</v>
@@ -50854,19 +51166,19 @@
         <v>-2475</v>
       </c>
       <c r="Z227" s="8">
-        <v>-12789</v>
+        <v>-12797</v>
       </c>
       <c r="AA227" s="8">
-        <v>-1492</v>
+        <v>-1499</v>
       </c>
       <c r="AB227" s="8">
-        <v>82935</v>
+        <v>82934</v>
       </c>
       <c r="AC227" s="8">
-        <v>-84427</v>
+        <v>-84433</v>
       </c>
       <c r="AD227" s="8">
-        <v>2816</v>
+        <v>2809</v>
       </c>
       <c r="AE227" s="8">
         <v>67600</v>
@@ -50875,7 +51187,7 @@
         <v>9701</v>
       </c>
       <c r="AG227" s="8">
-        <v>54148</v>
+        <v>54147</v>
       </c>
       <c r="AH227" s="8">
         <v>80</v>
@@ -50884,7 +51196,7 @@
         <v>3671</v>
       </c>
       <c r="AJ227" s="8">
-        <v>-64784</v>
+        <v>-64790</v>
       </c>
       <c r="AK227" s="8">
         <v>-19919</v>
@@ -50893,7 +51205,7 @@
         <v>-15789</v>
       </c>
       <c r="AM227" s="8">
-        <v>-27907</v>
+        <v>-27913</v>
       </c>
       <c r="AN227" s="8">
         <v>-1169</v>
@@ -50905,7 +51217,7 @@
         <v>15335</v>
       </c>
       <c r="AQ227" s="8">
-        <v>-19642</v>
+        <v>-19643</v>
       </c>
       <c r="AR227" s="8">
         <v>-10577</v>
@@ -50914,7 +51226,7 @@
         <v>12080</v>
       </c>
       <c r="AT227" s="8">
-        <v>-22657</v>
+        <v>-22658</v>
       </c>
       <c r="AU227" s="8">
         <v>-721</v>
@@ -50931,28 +51243,28 @@
         <v>41609</v>
       </c>
       <c r="B228" s="8">
-        <v>-11021</v>
+        <v>-11041</v>
       </c>
       <c r="C228" s="8">
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="D228" s="8">
-        <v>84592</v>
+        <v>84588</v>
       </c>
       <c r="E228" s="8">
-        <v>-84596</v>
+        <v>-84612</v>
       </c>
       <c r="F228" s="8">
-        <v>3800</v>
+        <v>3780</v>
       </c>
       <c r="G228" s="8">
-        <v>68826</v>
+        <v>68822</v>
       </c>
       <c r="H228" s="8">
         <v>9796</v>
       </c>
       <c r="I228" s="8">
-        <v>55277</v>
+        <v>55273</v>
       </c>
       <c r="J228" s="8">
         <v>55</v>
@@ -50961,37 +51273,37 @@
         <v>3698</v>
       </c>
       <c r="L228" s="8">
-        <v>-65026</v>
+        <v>-65042</v>
       </c>
       <c r="M228" s="8">
         <v>-20085</v>
       </c>
       <c r="N228" s="8">
-        <v>-15184</v>
+        <v>-15185</v>
       </c>
       <c r="O228" s="8">
-        <v>-28726</v>
+        <v>-28742</v>
       </c>
       <c r="P228" s="8">
         <v>-1031</v>
       </c>
       <c r="Q228" s="8">
-        <v>-3803</v>
+        <v>-3804</v>
       </c>
       <c r="R228" s="8">
         <v>15766</v>
       </c>
       <c r="S228" s="8">
-        <v>-19569</v>
+        <v>-19570</v>
       </c>
       <c r="T228" s="8">
-        <v>-10775</v>
+        <v>-10774</v>
       </c>
       <c r="U228" s="8">
-        <v>12317</v>
+        <v>12319</v>
       </c>
       <c r="V228" s="8">
-        <v>-23092</v>
+        <v>-23093</v>
       </c>
       <c r="W228" s="8">
         <v>-244</v>
@@ -51003,19 +51315,19 @@
         <v>-1972</v>
       </c>
       <c r="Z228" s="8">
-        <v>-12377</v>
+        <v>-12380</v>
       </c>
       <c r="AA228" s="8">
-        <v>-631</v>
+        <v>-634</v>
       </c>
       <c r="AB228" s="8">
-        <v>85331</v>
+        <v>85330</v>
       </c>
       <c r="AC228" s="8">
-        <v>-85962</v>
+        <v>-85964</v>
       </c>
       <c r="AD228" s="8">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="AE228" s="8">
         <v>69638</v>
@@ -51033,16 +51345,16 @@
         <v>3630</v>
       </c>
       <c r="AJ228" s="8">
-        <v>-66398</v>
+        <v>-66400</v>
       </c>
       <c r="AK228" s="8">
         <v>-20338</v>
       </c>
       <c r="AL228" s="8">
-        <v>-16019</v>
+        <v>-16020</v>
       </c>
       <c r="AM228" s="8">
-        <v>-28952</v>
+        <v>-28954</v>
       </c>
       <c r="AN228" s="8">
         <v>-1088</v>
@@ -51069,7 +51381,7 @@
         <v>-794</v>
       </c>
       <c r="AV228" s="8">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AW228" s="8">
         <v>-2524</v>
@@ -51080,28 +51392,28 @@
         <v>41699</v>
       </c>
       <c r="B229" s="8">
-        <v>-10802</v>
+        <v>-10769</v>
       </c>
       <c r="C229" s="8">
-        <v>1911</v>
+        <v>1943</v>
       </c>
       <c r="D229" s="8">
         <v>87722</v>
       </c>
       <c r="E229" s="8">
-        <v>-85811</v>
+        <v>-85779</v>
       </c>
       <c r="F229" s="8">
-        <v>5424</v>
+        <v>5455</v>
       </c>
       <c r="G229" s="8">
-        <v>71779</v>
+        <v>71781</v>
       </c>
       <c r="H229" s="8">
         <v>10682</v>
       </c>
       <c r="I229" s="8">
-        <v>57228</v>
+        <v>57230</v>
       </c>
       <c r="J229" s="8">
         <v>35</v>
@@ -51110,7 +51422,7 @@
         <v>3834</v>
       </c>
       <c r="L229" s="8">
-        <v>-66355</v>
+        <v>-66326</v>
       </c>
       <c r="M229" s="8">
         <v>-20837</v>
@@ -51119,61 +51431,61 @@
         <v>-14625</v>
       </c>
       <c r="O229" s="8">
-        <v>-29965</v>
+        <v>-29937</v>
       </c>
       <c r="P229" s="8">
         <v>-927</v>
       </c>
       <c r="Q229" s="8">
-        <v>-3513</v>
+        <v>-3512</v>
       </c>
       <c r="R229" s="8">
-        <v>15943</v>
+        <v>15942</v>
       </c>
       <c r="S229" s="8">
-        <v>-19456</v>
+        <v>-19453</v>
       </c>
       <c r="T229" s="8">
-        <v>-11134</v>
+        <v>-11133</v>
       </c>
       <c r="U229" s="8">
-        <v>12593</v>
+        <v>12592</v>
       </c>
       <c r="V229" s="8">
-        <v>-23727</v>
+        <v>-23725</v>
       </c>
       <c r="W229" s="8">
         <v>-1579</v>
       </c>
       <c r="X229" s="8">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Y229" s="8">
         <v>-3341</v>
       </c>
       <c r="Z229" s="8">
-        <v>-10967</v>
+        <v>-10956</v>
       </c>
       <c r="AA229" s="8">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AB229" s="8">
-        <v>85360</v>
+        <v>85361</v>
       </c>
       <c r="AC229" s="8">
-        <v>-84952</v>
+        <v>-84943</v>
       </c>
       <c r="AD229" s="8">
-        <v>3724</v>
+        <v>3734</v>
       </c>
       <c r="AE229" s="8">
-        <v>69328</v>
+        <v>69329</v>
       </c>
       <c r="AF229" s="8">
         <v>10131</v>
       </c>
       <c r="AG229" s="8">
-        <v>55569</v>
+        <v>55571</v>
       </c>
       <c r="AH229" s="8">
         <v>46</v>
@@ -51182,7 +51494,7 @@
         <v>3582</v>
       </c>
       <c r="AJ229" s="8">
-        <v>-65604</v>
+        <v>-65595</v>
       </c>
       <c r="AK229" s="8">
         <v>-20508</v>
@@ -51191,13 +51503,13 @@
         <v>-14471</v>
       </c>
       <c r="AM229" s="8">
-        <v>-29648</v>
+        <v>-29640</v>
       </c>
       <c r="AN229" s="8">
         <v>-977</v>
       </c>
       <c r="AO229" s="8">
-        <v>-3317</v>
+        <v>-3316</v>
       </c>
       <c r="AP229" s="8">
         <v>16032</v>
@@ -51206,10 +51518,10 @@
         <v>-19348</v>
       </c>
       <c r="AR229" s="8">
-        <v>-10504</v>
+        <v>-10503</v>
       </c>
       <c r="AS229" s="8">
-        <v>12484</v>
+        <v>12483</v>
       </c>
       <c r="AT229" s="8">
         <v>-22987</v>
@@ -51229,28 +51541,28 @@
         <v>41791</v>
       </c>
       <c r="B230" s="8">
-        <v>-12418</v>
+        <v>-12403</v>
       </c>
       <c r="C230" s="8">
-        <v>-2679</v>
+        <v>-2664</v>
       </c>
       <c r="D230" s="8">
-        <v>82464</v>
+        <v>82472</v>
       </c>
       <c r="E230" s="8">
-        <v>-85142</v>
+        <v>-85136</v>
       </c>
       <c r="F230" s="8">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G230" s="8">
-        <v>66008</v>
+        <v>66014</v>
       </c>
       <c r="H230" s="8">
         <v>9727</v>
       </c>
       <c r="I230" s="8">
-        <v>53083</v>
+        <v>53090</v>
       </c>
       <c r="J230" s="8">
         <v>51</v>
@@ -51259,25 +51571,25 @@
         <v>3147</v>
       </c>
       <c r="L230" s="8">
-        <v>-65990</v>
+        <v>-65982</v>
       </c>
       <c r="M230" s="8">
-        <v>-20396</v>
+        <v>-20397</v>
       </c>
       <c r="N230" s="8">
-        <v>-14976</v>
+        <v>-14974</v>
       </c>
       <c r="O230" s="8">
-        <v>-29631</v>
+        <v>-29624</v>
       </c>
       <c r="P230" s="8">
         <v>-987</v>
       </c>
       <c r="Q230" s="8">
-        <v>-2697</v>
+        <v>-2696</v>
       </c>
       <c r="R230" s="8">
-        <v>16455</v>
+        <v>16457</v>
       </c>
       <c r="S230" s="8">
         <v>-19153</v>
@@ -51286,7 +51598,7 @@
         <v>-9132</v>
       </c>
       <c r="U230" s="8">
-        <v>12462</v>
+        <v>12463</v>
       </c>
       <c r="V230" s="8">
         <v>-21595</v>
@@ -51301,28 +51613,28 @@
         <v>-2403</v>
       </c>
       <c r="Z230" s="8">
-        <v>-11955</v>
+        <v>-11949</v>
       </c>
       <c r="AA230" s="8">
-        <v>-1537</v>
+        <v>-1531</v>
       </c>
       <c r="AB230" s="8">
-        <v>83653</v>
+        <v>83655</v>
       </c>
       <c r="AC230" s="8">
-        <v>-85190</v>
+        <v>-85187</v>
       </c>
       <c r="AD230" s="8">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="AE230" s="8">
-        <v>67270</v>
+        <v>67271</v>
       </c>
       <c r="AF230" s="8">
         <v>10000</v>
       </c>
       <c r="AG230" s="8">
-        <v>53707</v>
+        <v>53709</v>
       </c>
       <c r="AH230" s="8">
         <v>59</v>
@@ -51331,16 +51643,16 @@
         <v>3503</v>
       </c>
       <c r="AJ230" s="8">
-        <v>-65922</v>
+        <v>-65918</v>
       </c>
       <c r="AK230" s="8">
-        <v>-20488</v>
+        <v>-20489</v>
       </c>
       <c r="AL230" s="8">
         <v>-14953</v>
       </c>
       <c r="AM230" s="8">
-        <v>-29573</v>
+        <v>-29569</v>
       </c>
       <c r="AN230" s="8">
         <v>-908</v>
@@ -51349,10 +51661,10 @@
         <v>-2885</v>
       </c>
       <c r="AP230" s="8">
-        <v>16383</v>
+        <v>16384</v>
       </c>
       <c r="AQ230" s="8">
-        <v>-19268</v>
+        <v>-19269</v>
       </c>
       <c r="AR230" s="8">
         <v>-9484</v>
@@ -51378,28 +51690,28 @@
         <v>41883</v>
       </c>
       <c r="B231" s="8">
-        <v>-13465</v>
+        <v>-13488</v>
       </c>
       <c r="C231" s="8">
-        <v>-4441</v>
+        <v>-4460</v>
       </c>
       <c r="D231" s="8">
-        <v>81110</v>
+        <v>81108</v>
       </c>
       <c r="E231" s="8">
-        <v>-85551</v>
+        <v>-85569</v>
       </c>
       <c r="F231" s="8">
-        <v>-1725</v>
+        <v>-1742</v>
       </c>
       <c r="G231" s="8">
-        <v>64318</v>
+        <v>64316</v>
       </c>
       <c r="H231" s="8">
         <v>9879</v>
       </c>
       <c r="I231" s="8">
-        <v>50588</v>
+        <v>50586</v>
       </c>
       <c r="J231" s="8">
         <v>101</v>
@@ -51408,37 +51720,37 @@
         <v>3750</v>
       </c>
       <c r="L231" s="8">
-        <v>-66043</v>
+        <v>-66058</v>
       </c>
       <c r="M231" s="8">
-        <v>-20472</v>
+        <v>-20473</v>
       </c>
       <c r="N231" s="8">
-        <v>-15506</v>
+        <v>-15507</v>
       </c>
       <c r="O231" s="8">
-        <v>-29212</v>
+        <v>-29226</v>
       </c>
       <c r="P231" s="8">
         <v>-852</v>
       </c>
       <c r="Q231" s="8">
-        <v>-2716</v>
+        <v>-2719</v>
       </c>
       <c r="R231" s="8">
-        <v>16791</v>
+        <v>16792</v>
       </c>
       <c r="S231" s="8">
-        <v>-19507</v>
+        <v>-19511</v>
       </c>
       <c r="T231" s="8">
-        <v>-8295</v>
+        <v>-8298</v>
       </c>
       <c r="U231" s="8">
-        <v>13762</v>
+        <v>13760</v>
       </c>
       <c r="V231" s="8">
-        <v>-22057</v>
+        <v>-22058</v>
       </c>
       <c r="W231" s="8">
         <v>-730</v>
@@ -51450,19 +51762,19 @@
         <v>-2587</v>
       </c>
       <c r="Z231" s="8">
-        <v>-12477</v>
+        <v>-12485</v>
       </c>
       <c r="AA231" s="8">
-        <v>-3269</v>
+        <v>-3277</v>
       </c>
       <c r="AB231" s="8">
         <v>82373</v>
       </c>
       <c r="AC231" s="8">
-        <v>-85642</v>
+        <v>-85650</v>
       </c>
       <c r="AD231" s="8">
-        <v>-689</v>
+        <v>-696</v>
       </c>
       <c r="AE231" s="8">
         <v>65465</v>
@@ -51480,16 +51792,16 @@
         <v>3558</v>
       </c>
       <c r="AJ231" s="8">
-        <v>-66154</v>
+        <v>-66161</v>
       </c>
       <c r="AK231" s="8">
-        <v>-20608</v>
+        <v>-20609</v>
       </c>
       <c r="AL231" s="8">
-        <v>-15742</v>
+        <v>-15743</v>
       </c>
       <c r="AM231" s="8">
-        <v>-28914</v>
+        <v>-28920</v>
       </c>
       <c r="AN231" s="8">
         <v>-889</v>
@@ -51527,28 +51839,28 @@
         <v>41974</v>
       </c>
       <c r="B232" s="8">
-        <v>-12378</v>
+        <v>-12406</v>
       </c>
       <c r="C232" s="8">
-        <v>-3485</v>
+        <v>-3515</v>
       </c>
       <c r="D232" s="8">
-        <v>82489</v>
+        <v>82481</v>
       </c>
       <c r="E232" s="8">
-        <v>-85974</v>
+        <v>-85996</v>
       </c>
       <c r="F232" s="8">
-        <v>-1043</v>
+        <v>-1071</v>
       </c>
       <c r="G232" s="8">
-        <v>65048</v>
+        <v>65043</v>
       </c>
       <c r="H232" s="8">
-        <v>10176</v>
+        <v>10177</v>
       </c>
       <c r="I232" s="8">
-        <v>51331</v>
+        <v>51325</v>
       </c>
       <c r="J232" s="8">
         <v>103</v>
@@ -51557,37 +51869,37 @@
         <v>3438</v>
       </c>
       <c r="L232" s="8">
-        <v>-66091</v>
+        <v>-66113</v>
       </c>
       <c r="M232" s="8">
-        <v>-21095</v>
+        <v>-21094</v>
       </c>
       <c r="N232" s="8">
-        <v>-16391</v>
+        <v>-16394</v>
       </c>
       <c r="O232" s="8">
-        <v>-27739</v>
+        <v>-27759</v>
       </c>
       <c r="P232" s="8">
         <v>-866</v>
       </c>
       <c r="Q232" s="8">
-        <v>-2443</v>
+        <v>-2444</v>
       </c>
       <c r="R232" s="8">
-        <v>17441</v>
+        <v>17438</v>
       </c>
       <c r="S232" s="8">
-        <v>-19883</v>
+        <v>-19882</v>
       </c>
       <c r="T232" s="8">
-        <v>-7817</v>
+        <v>-7815</v>
       </c>
       <c r="U232" s="8">
-        <v>13231</v>
+        <v>13234</v>
       </c>
       <c r="V232" s="8">
-        <v>-21048</v>
+        <v>-21049</v>
       </c>
       <c r="W232" s="8">
         <v>-1076</v>
@@ -51599,28 +51911,28 @@
         <v>-2926</v>
       </c>
       <c r="Z232" s="8">
-        <v>-13221</v>
+        <v>-13227</v>
       </c>
       <c r="AA232" s="8">
-        <v>-4721</v>
+        <v>-4728</v>
       </c>
       <c r="AB232" s="8">
-        <v>81792</v>
+        <v>81790</v>
       </c>
       <c r="AC232" s="8">
-        <v>-86513</v>
+        <v>-86518</v>
       </c>
       <c r="AD232" s="8">
-        <v>-2232</v>
+        <v>-2239</v>
       </c>
       <c r="AE232" s="8">
-        <v>64323</v>
+        <v>64322</v>
       </c>
       <c r="AF232" s="8">
         <v>10352</v>
       </c>
       <c r="AG232" s="8">
-        <v>50288</v>
+        <v>50287</v>
       </c>
       <c r="AH232" s="8">
         <v>102</v>
@@ -51629,28 +51941,28 @@
         <v>3581</v>
       </c>
       <c r="AJ232" s="8">
-        <v>-66555</v>
+        <v>-66561</v>
       </c>
       <c r="AK232" s="8">
         <v>-21084</v>
       </c>
       <c r="AL232" s="8">
-        <v>-16162</v>
+        <v>-16163</v>
       </c>
       <c r="AM232" s="8">
-        <v>-28413</v>
+        <v>-28419</v>
       </c>
       <c r="AN232" s="8">
         <v>-896</v>
       </c>
       <c r="AO232" s="8">
-        <v>-2489</v>
+        <v>-2488</v>
       </c>
       <c r="AP232" s="8">
-        <v>17469</v>
+        <v>17468</v>
       </c>
       <c r="AQ232" s="8">
-        <v>-19958</v>
+        <v>-19956</v>
       </c>
       <c r="AR232" s="8">
         <v>-7740</v>
@@ -51676,28 +51988,28 @@
         <v>42064</v>
       </c>
       <c r="B233" s="8">
-        <v>-13686</v>
+        <v>-13648</v>
       </c>
       <c r="C233" s="8">
-        <v>-5450</v>
+        <v>-5413</v>
       </c>
       <c r="D233" s="8">
-        <v>83334</v>
+        <v>83340</v>
       </c>
       <c r="E233" s="8">
-        <v>-88785</v>
+        <v>-88753</v>
       </c>
       <c r="F233" s="8">
-        <v>-2879</v>
+        <v>-2849</v>
       </c>
       <c r="G233" s="8">
-        <v>65158</v>
+        <v>65163</v>
       </c>
       <c r="H233" s="8">
         <v>11215</v>
       </c>
       <c r="I233" s="8">
-        <v>49765</v>
+        <v>49770</v>
       </c>
       <c r="J233" s="8">
         <v>95</v>
@@ -51706,67 +52018,67 @@
         <v>4083</v>
       </c>
       <c r="L233" s="8">
-        <v>-68037</v>
+        <v>-68012</v>
       </c>
       <c r="M233" s="8">
-        <v>-22005</v>
+        <v>-22003</v>
       </c>
       <c r="N233" s="8">
-        <v>-16748</v>
+        <v>-16746</v>
       </c>
       <c r="O233" s="8">
-        <v>-28280</v>
+        <v>-28259</v>
       </c>
       <c r="P233" s="8">
         <v>-1004</v>
       </c>
       <c r="Q233" s="8">
-        <v>-2572</v>
+        <v>-2565</v>
       </c>
       <c r="R233" s="8">
-        <v>18176</v>
+        <v>18177</v>
       </c>
       <c r="S233" s="8">
-        <v>-20748</v>
+        <v>-20742</v>
       </c>
       <c r="T233" s="8">
-        <v>-7787</v>
+        <v>-7786</v>
       </c>
       <c r="U233" s="8">
-        <v>13303</v>
+        <v>13301</v>
       </c>
       <c r="V233" s="8">
-        <v>-21090</v>
+        <v>-21087</v>
       </c>
       <c r="W233" s="8">
-        <v>-448</v>
+        <v>-449</v>
       </c>
       <c r="X233" s="8">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Y233" s="8">
         <v>-2356</v>
       </c>
       <c r="Z233" s="8">
-        <v>-15259</v>
+        <v>-15250</v>
       </c>
       <c r="AA233" s="8">
-        <v>-6398</v>
+        <v>-6389</v>
       </c>
       <c r="AB233" s="8">
-        <v>81839</v>
+        <v>81840</v>
       </c>
       <c r="AC233" s="8">
-        <v>-88236</v>
+        <v>-88229</v>
       </c>
       <c r="AD233" s="8">
-        <v>-3778</v>
+        <v>-3771</v>
       </c>
       <c r="AE233" s="8">
-        <v>63966</v>
+        <v>63967</v>
       </c>
       <c r="AF233" s="8">
-        <v>10946</v>
+        <v>10945</v>
       </c>
       <c r="AG233" s="8">
         <v>49290</v>
@@ -51778,37 +52090,37 @@
         <v>3631</v>
       </c>
       <c r="AJ233" s="8">
-        <v>-67744</v>
+        <v>-67738</v>
       </c>
       <c r="AK233" s="8">
         <v>-22102</v>
       </c>
       <c r="AL233" s="8">
-        <v>-16275</v>
+        <v>-16274</v>
       </c>
       <c r="AM233" s="8">
-        <v>-28404</v>
+        <v>-28398</v>
       </c>
       <c r="AN233" s="8">
         <v>-964</v>
       </c>
       <c r="AO233" s="8">
-        <v>-2619</v>
+        <v>-2618</v>
       </c>
       <c r="AP233" s="8">
         <v>17873</v>
       </c>
       <c r="AQ233" s="8">
-        <v>-20492</v>
+        <v>-20491</v>
       </c>
       <c r="AR233" s="8">
-        <v>-8147</v>
+        <v>-8146</v>
       </c>
       <c r="AS233" s="8">
         <v>13250</v>
       </c>
       <c r="AT233" s="8">
-        <v>-21397</v>
+        <v>-21396</v>
       </c>
       <c r="AU233" s="8">
         <v>-715</v>
@@ -51825,28 +52137,28 @@
         <v>42156</v>
       </c>
       <c r="B234" s="8">
-        <v>-20736</v>
+        <v>-20727</v>
       </c>
       <c r="C234" s="8">
-        <v>-11011</v>
+        <v>-11002</v>
       </c>
       <c r="D234" s="8">
-        <v>78620</v>
+        <v>78623</v>
       </c>
       <c r="E234" s="8">
-        <v>-89631</v>
+        <v>-89625</v>
       </c>
       <c r="F234" s="8">
-        <v>-8057</v>
+        <v>-8046</v>
       </c>
       <c r="G234" s="8">
-        <v>60686</v>
+        <v>60687</v>
       </c>
       <c r="H234" s="8">
-        <v>11308</v>
+        <v>11307</v>
       </c>
       <c r="I234" s="8">
-        <v>46366</v>
+        <v>46369</v>
       </c>
       <c r="J234" s="8">
         <v>93</v>
@@ -51855,37 +52167,37 @@
         <v>2918</v>
       </c>
       <c r="L234" s="8">
-        <v>-68743</v>
+        <v>-68732</v>
       </c>
       <c r="M234" s="8">
         <v>-23173</v>
       </c>
       <c r="N234" s="8">
-        <v>-15326</v>
+        <v>-15324</v>
       </c>
       <c r="O234" s="8">
-        <v>-29230</v>
+        <v>-29221</v>
       </c>
       <c r="P234" s="8">
         <v>-1014</v>
       </c>
       <c r="Q234" s="8">
-        <v>-2954</v>
+        <v>-2957</v>
       </c>
       <c r="R234" s="8">
-        <v>17934</v>
+        <v>17936</v>
       </c>
       <c r="S234" s="8">
-        <v>-20888</v>
+        <v>-20893</v>
       </c>
       <c r="T234" s="8">
-        <v>-9043</v>
+        <v>-9042</v>
       </c>
       <c r="U234" s="8">
-        <v>13095</v>
+        <v>13097</v>
       </c>
       <c r="V234" s="8">
-        <v>-22138</v>
+        <v>-22140</v>
       </c>
       <c r="W234" s="8">
         <v>-682</v>
@@ -51897,28 +52209,28 @@
         <v>-2569</v>
       </c>
       <c r="Z234" s="8">
-        <v>-18540</v>
+        <v>-18537</v>
       </c>
       <c r="AA234" s="8">
-        <v>-8837</v>
+        <v>-8833</v>
       </c>
       <c r="AB234" s="8">
-        <v>81348</v>
+        <v>81350</v>
       </c>
       <c r="AC234" s="8">
-        <v>-90185</v>
+        <v>-90183</v>
       </c>
       <c r="AD234" s="8">
-        <v>-5962</v>
+        <v>-5956</v>
       </c>
       <c r="AE234" s="8">
         <v>63164</v>
       </c>
       <c r="AF234" s="8">
-        <v>11277</v>
+        <v>11276</v>
       </c>
       <c r="AG234" s="8">
-        <v>48098</v>
+        <v>48100</v>
       </c>
       <c r="AH234" s="8">
         <v>91</v>
@@ -51927,28 +52239,28 @@
         <v>3698</v>
       </c>
       <c r="AJ234" s="8">
-        <v>-69126</v>
+        <v>-69120</v>
       </c>
       <c r="AK234" s="8">
-        <v>-23235</v>
+        <v>-23236</v>
       </c>
       <c r="AL234" s="8">
-        <v>-16344</v>
+        <v>-16343</v>
       </c>
       <c r="AM234" s="8">
-        <v>-28491</v>
+        <v>-28486</v>
       </c>
       <c r="AN234" s="8">
         <v>-1056</v>
       </c>
       <c r="AO234" s="8">
-        <v>-2875</v>
+        <v>-2877</v>
       </c>
       <c r="AP234" s="8">
         <v>18185</v>
       </c>
       <c r="AQ234" s="8">
-        <v>-21060</v>
+        <v>-21062</v>
       </c>
       <c r="AR234" s="8">
         <v>-9207</v>
@@ -51974,25 +52286,25 @@
         <v>42248</v>
       </c>
       <c r="B235" s="8">
-        <v>-19794</v>
+        <v>-19815</v>
       </c>
       <c r="C235" s="8">
-        <v>-8989</v>
+        <v>-9004</v>
       </c>
       <c r="D235" s="8">
-        <v>82565</v>
+        <v>82564</v>
       </c>
       <c r="E235" s="8">
-        <v>-91553</v>
+        <v>-91568</v>
       </c>
       <c r="F235" s="8">
-        <v>-5979</v>
+        <v>-5990</v>
       </c>
       <c r="G235" s="8">
-        <v>64162</v>
+        <v>64161</v>
       </c>
       <c r="H235" s="8">
-        <v>11075</v>
+        <v>11074</v>
       </c>
       <c r="I235" s="8">
         <v>48429</v>
@@ -52004,70 +52316,70 @@
         <v>4575</v>
       </c>
       <c r="L235" s="8">
-        <v>-70141</v>
+        <v>-70151</v>
       </c>
       <c r="M235" s="8">
-        <v>-24347</v>
+        <v>-24351</v>
       </c>
       <c r="N235" s="8">
         <v>-16942</v>
       </c>
       <c r="O235" s="8">
-        <v>-27666</v>
+        <v>-27670</v>
       </c>
       <c r="P235" s="8">
         <v>-1187</v>
       </c>
       <c r="Q235" s="8">
-        <v>-3009</v>
+        <v>-3014</v>
       </c>
       <c r="R235" s="8">
-        <v>18402</v>
+        <v>18403</v>
       </c>
       <c r="S235" s="8">
-        <v>-21412</v>
+        <v>-21417</v>
       </c>
       <c r="T235" s="8">
-        <v>-10582</v>
+        <v>-10587</v>
       </c>
       <c r="U235" s="8">
-        <v>12720</v>
+        <v>12716</v>
       </c>
       <c r="V235" s="8">
-        <v>-23302</v>
+        <v>-23304</v>
       </c>
       <c r="W235" s="8">
         <v>-224</v>
       </c>
       <c r="X235" s="8">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="Y235" s="8">
-        <v>-2470</v>
+        <v>-2471</v>
       </c>
       <c r="Z235" s="8">
-        <v>-20807</v>
+        <v>-20816</v>
       </c>
       <c r="AA235" s="8">
-        <v>-10655</v>
+        <v>-10663</v>
       </c>
       <c r="AB235" s="8">
-        <v>80232</v>
+        <v>80230</v>
       </c>
       <c r="AC235" s="8">
-        <v>-90886</v>
+        <v>-90893</v>
       </c>
       <c r="AD235" s="8">
-        <v>-7718</v>
+        <v>-7725</v>
       </c>
       <c r="AE235" s="8">
-        <v>61737</v>
+        <v>61736</v>
       </c>
       <c r="AF235" s="8">
         <v>11211</v>
       </c>
       <c r="AG235" s="8">
-        <v>46587</v>
+        <v>46586</v>
       </c>
       <c r="AH235" s="8">
         <v>84</v>
@@ -52076,31 +52388,31 @@
         <v>3855</v>
       </c>
       <c r="AJ235" s="8">
-        <v>-69455</v>
+        <v>-69461</v>
       </c>
       <c r="AK235" s="8">
-        <v>-23973</v>
+        <v>-23974</v>
       </c>
       <c r="AL235" s="8">
-        <v>-16420</v>
+        <v>-16421</v>
       </c>
       <c r="AM235" s="8">
-        <v>-27959</v>
+        <v>-27963</v>
       </c>
       <c r="AN235" s="8">
         <v>-1103</v>
       </c>
       <c r="AO235" s="8">
-        <v>-2937</v>
+        <v>-2938</v>
       </c>
       <c r="AP235" s="8">
         <v>18494</v>
       </c>
       <c r="AQ235" s="8">
-        <v>-21431</v>
+        <v>-21432</v>
       </c>
       <c r="AR235" s="8">
-        <v>-9858</v>
+        <v>-9859</v>
       </c>
       <c r="AS235" s="8">
         <v>13050</v>
@@ -52123,28 +52435,28 @@
         <v>42339</v>
       </c>
       <c r="B236" s="8">
-        <v>-21759</v>
+        <v>-21792</v>
       </c>
       <c r="C236" s="8">
-        <v>-11584</v>
+        <v>-11621</v>
       </c>
       <c r="D236" s="8">
-        <v>79451</v>
+        <v>79441</v>
       </c>
       <c r="E236" s="8">
-        <v>-91035</v>
+        <v>-91062</v>
       </c>
       <c r="F236" s="8">
-        <v>-8465</v>
+        <v>-8498</v>
       </c>
       <c r="G236" s="8">
-        <v>60430</v>
+        <v>60425</v>
       </c>
       <c r="H236" s="8">
-        <v>11659</v>
+        <v>11662</v>
       </c>
       <c r="I236" s="8">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="J236" s="8">
         <v>88</v>
@@ -52153,70 +52465,70 @@
         <v>3817</v>
       </c>
       <c r="L236" s="8">
-        <v>-68895</v>
+        <v>-68923</v>
       </c>
       <c r="M236" s="8">
-        <v>-24061</v>
+        <v>-24057</v>
       </c>
       <c r="N236" s="8">
-        <v>-16639</v>
+        <v>-16643</v>
       </c>
       <c r="O236" s="8">
-        <v>-27096</v>
+        <v>-27124</v>
       </c>
       <c r="P236" s="8">
         <v>-1099</v>
       </c>
       <c r="Q236" s="8">
-        <v>-3119</v>
+        <v>-3123</v>
       </c>
       <c r="R236" s="8">
-        <v>19021</v>
+        <v>19016</v>
       </c>
       <c r="S236" s="8">
-        <v>-22140</v>
+        <v>-22139</v>
       </c>
       <c r="T236" s="8">
-        <v>-10054</v>
+        <v>-10050</v>
       </c>
       <c r="U236" s="8">
-        <v>13521</v>
+        <v>13524</v>
       </c>
       <c r="V236" s="8">
         <v>-23574</v>
       </c>
       <c r="W236" s="8">
-        <v>-122</v>
+        <v>-121</v>
       </c>
       <c r="X236" s="8">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="Y236" s="8">
-        <v>-2414</v>
+        <v>-2413</v>
       </c>
       <c r="Z236" s="8">
-        <v>-20675</v>
+        <v>-20678</v>
       </c>
       <c r="AA236" s="8">
-        <v>-10727</v>
+        <v>-10731</v>
       </c>
       <c r="AB236" s="8">
-        <v>78914</v>
+        <v>78913</v>
       </c>
       <c r="AC236" s="8">
-        <v>-89641</v>
+        <v>-89644</v>
       </c>
       <c r="AD236" s="8">
-        <v>-8030</v>
+        <v>-8037</v>
       </c>
       <c r="AE236" s="8">
         <v>60159</v>
       </c>
       <c r="AF236" s="8">
-        <v>10832</v>
+        <v>10833</v>
       </c>
       <c r="AG236" s="8">
-        <v>45144</v>
+        <v>45142</v>
       </c>
       <c r="AH236" s="8">
         <v>94</v>
@@ -52225,37 +52537,37 @@
         <v>4089</v>
       </c>
       <c r="AJ236" s="8">
-        <v>-68189</v>
+        <v>-68196</v>
       </c>
       <c r="AK236" s="8">
-        <v>-24082</v>
+        <v>-24081</v>
       </c>
       <c r="AL236" s="8">
-        <v>-16255</v>
+        <v>-16256</v>
       </c>
       <c r="AM236" s="8">
-        <v>-26716</v>
+        <v>-26723</v>
       </c>
       <c r="AN236" s="8">
         <v>-1135</v>
       </c>
       <c r="AO236" s="8">
-        <v>-2697</v>
+        <v>-2694</v>
       </c>
       <c r="AP236" s="8">
-        <v>18755</v>
+        <v>18754</v>
       </c>
       <c r="AQ236" s="8">
-        <v>-21452</v>
+        <v>-21448</v>
       </c>
       <c r="AR236" s="8">
-        <v>-9784</v>
+        <v>-9783</v>
       </c>
       <c r="AS236" s="8">
         <v>13096</v>
       </c>
       <c r="AT236" s="8">
-        <v>-22880</v>
+        <v>-22879</v>
       </c>
       <c r="AU236" s="8">
         <v>-164</v>
@@ -52272,28 +52584,28 @@
         <v>42430</v>
       </c>
       <c r="B237" s="8">
-        <v>-17589</v>
+        <v>-17535</v>
       </c>
       <c r="C237" s="8">
-        <v>-9213</v>
+        <v>-9163</v>
       </c>
       <c r="D237" s="8">
-        <v>77101</v>
+        <v>77110</v>
       </c>
       <c r="E237" s="8">
-        <v>-86314</v>
+        <v>-86273</v>
       </c>
       <c r="F237" s="8">
-        <v>-7342</v>
+        <v>-7312</v>
       </c>
       <c r="G237" s="8">
-        <v>58142</v>
+        <v>58149</v>
       </c>
       <c r="H237" s="8">
-        <v>10280</v>
+        <v>10281</v>
       </c>
       <c r="I237" s="8">
-        <v>43435</v>
+        <v>43441</v>
       </c>
       <c r="J237" s="8">
         <v>88</v>
@@ -52302,70 +52614,70 @@
         <v>4339</v>
       </c>
       <c r="L237" s="8">
-        <v>-65483</v>
+        <v>-65461</v>
       </c>
       <c r="M237" s="8">
-        <v>-23655</v>
+        <v>-23653</v>
       </c>
       <c r="N237" s="8">
-        <v>-15389</v>
+        <v>-15385</v>
       </c>
       <c r="O237" s="8">
-        <v>-25224</v>
+        <v>-25208</v>
       </c>
       <c r="P237" s="8">
         <v>-1215</v>
       </c>
       <c r="Q237" s="8">
-        <v>-1872</v>
+        <v>-1850</v>
       </c>
       <c r="R237" s="8">
-        <v>18959</v>
+        <v>18961</v>
       </c>
       <c r="S237" s="8">
-        <v>-20830</v>
+        <v>-20812</v>
       </c>
       <c r="T237" s="8">
-        <v>-8205</v>
+        <v>-8201</v>
       </c>
       <c r="U237" s="8">
         <v>12905</v>
       </c>
       <c r="V237" s="8">
-        <v>-21110</v>
+        <v>-21106</v>
       </c>
       <c r="W237" s="8">
-        <v>-170</v>
+        <v>-171</v>
       </c>
       <c r="X237" s="8">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="Y237" s="8">
-        <v>-2448</v>
+        <v>-2447</v>
       </c>
       <c r="Z237" s="8">
-        <v>-19171</v>
+        <v>-19158</v>
       </c>
       <c r="AA237" s="8">
-        <v>-9800</v>
+        <v>-9787</v>
       </c>
       <c r="AB237" s="8">
-        <v>77856</v>
+        <v>77859</v>
       </c>
       <c r="AC237" s="8">
-        <v>-87656</v>
+        <v>-87646</v>
       </c>
       <c r="AD237" s="8">
-        <v>-7529</v>
+        <v>-7519</v>
       </c>
       <c r="AE237" s="8">
-        <v>58892</v>
+        <v>58894</v>
       </c>
       <c r="AF237" s="8">
         <v>10438</v>
       </c>
       <c r="AG237" s="8">
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="AH237" s="8">
         <v>93</v>
@@ -52374,34 +52686,34 @@
         <v>4581</v>
       </c>
       <c r="AJ237" s="8">
-        <v>-66421</v>
+        <v>-66413</v>
       </c>
       <c r="AK237" s="8">
-        <v>-23833</v>
+        <v>-23832</v>
       </c>
       <c r="AL237" s="8">
-        <v>-15643</v>
+        <v>-15640</v>
       </c>
       <c r="AM237" s="8">
-        <v>-25651</v>
+        <v>-25646</v>
       </c>
       <c r="AN237" s="8">
         <v>-1295</v>
       </c>
       <c r="AO237" s="8">
-        <v>-2270</v>
+        <v>-2268</v>
       </c>
       <c r="AP237" s="8">
-        <v>18964</v>
+        <v>18965</v>
       </c>
       <c r="AQ237" s="8">
-        <v>-21235</v>
+        <v>-21233</v>
       </c>
       <c r="AR237" s="8">
-        <v>-9239</v>
+        <v>-9238</v>
       </c>
       <c r="AS237" s="8">
-        <v>13114</v>
+        <v>13113</v>
       </c>
       <c r="AT237" s="8">
         <v>-22352</v>
@@ -52421,28 +52733,28 @@
         <v>42522</v>
       </c>
       <c r="B238" s="8">
-        <v>-17795</v>
+        <v>-17790</v>
       </c>
       <c r="C238" s="8">
-        <v>-7514</v>
+        <v>-7503</v>
       </c>
       <c r="D238" s="8">
-        <v>79490</v>
+        <v>79495</v>
       </c>
       <c r="E238" s="8">
-        <v>-87003</v>
+        <v>-86998</v>
       </c>
       <c r="F238" s="8">
-        <v>-5341</v>
+        <v>-5318</v>
       </c>
       <c r="G238" s="8">
-        <v>60609</v>
+        <v>60612</v>
       </c>
       <c r="H238" s="8">
-        <v>10210</v>
+        <v>10208</v>
       </c>
       <c r="I238" s="8">
-        <v>45102</v>
+        <v>45108</v>
       </c>
       <c r="J238" s="8">
         <v>131</v>
@@ -52451,70 +52763,70 @@
         <v>5165</v>
       </c>
       <c r="L238" s="8">
-        <v>-65950</v>
+        <v>-65930</v>
       </c>
       <c r="M238" s="8">
-        <v>-24159</v>
+        <v>-24157</v>
       </c>
       <c r="N238" s="8">
-        <v>-15037</v>
+        <v>-15033</v>
       </c>
       <c r="O238" s="8">
-        <v>-25282</v>
+        <v>-25268</v>
       </c>
       <c r="P238" s="8">
         <v>-1472</v>
       </c>
       <c r="Q238" s="8">
-        <v>-2173</v>
+        <v>-2185</v>
       </c>
       <c r="R238" s="8">
-        <v>18881</v>
+        <v>18883</v>
       </c>
       <c r="S238" s="8">
-        <v>-21054</v>
+        <v>-21068</v>
       </c>
       <c r="T238" s="8">
-        <v>-10154</v>
+        <v>-10159</v>
       </c>
       <c r="U238" s="8">
         <v>13232</v>
       </c>
       <c r="V238" s="8">
-        <v>-23387</v>
+        <v>-23391</v>
       </c>
       <c r="W238" s="8">
-        <v>-127</v>
+        <v>-128</v>
       </c>
       <c r="X238" s="8">
         <v>2311</v>
       </c>
       <c r="Y238" s="8">
-        <v>-2438</v>
+        <v>-2439</v>
       </c>
       <c r="Z238" s="8">
-        <v>-16375</v>
+        <v>-16379</v>
       </c>
       <c r="AA238" s="8">
-        <v>-6873</v>
+        <v>-6874</v>
       </c>
       <c r="AB238" s="8">
-        <v>79664</v>
+        <v>79665</v>
       </c>
       <c r="AC238" s="8">
-        <v>-86537</v>
+        <v>-86539</v>
       </c>
       <c r="AD238" s="8">
-        <v>-5070</v>
+        <v>-5065</v>
       </c>
       <c r="AE238" s="8">
-        <v>60498</v>
+        <v>60499</v>
       </c>
       <c r="AF238" s="8">
-        <v>10263</v>
+        <v>10262</v>
       </c>
       <c r="AG238" s="8">
-        <v>45064</v>
+        <v>45066</v>
       </c>
       <c r="AH238" s="8">
         <v>84</v>
@@ -52523,37 +52835,37 @@
         <v>5087</v>
       </c>
       <c r="AJ238" s="8">
-        <v>-65569</v>
+        <v>-65564</v>
       </c>
       <c r="AK238" s="8">
-        <v>-23625</v>
+        <v>-23627</v>
       </c>
       <c r="AL238" s="8">
-        <v>-15198</v>
+        <v>-15197</v>
       </c>
       <c r="AM238" s="8">
-        <v>-25243</v>
+        <v>-25238</v>
       </c>
       <c r="AN238" s="8">
         <v>-1503</v>
       </c>
       <c r="AO238" s="8">
-        <v>-1803</v>
+        <v>-1809</v>
       </c>
       <c r="AP238" s="8">
         <v>19166</v>
       </c>
       <c r="AQ238" s="8">
-        <v>-20969</v>
+        <v>-20975</v>
       </c>
       <c r="AR238" s="8">
-        <v>-9308</v>
+        <v>-9311</v>
       </c>
       <c r="AS238" s="8">
-        <v>13175</v>
+        <v>13174</v>
       </c>
       <c r="AT238" s="8">
-        <v>-22483</v>
+        <v>-22485</v>
       </c>
       <c r="AU238" s="8">
         <v>-194</v>
@@ -52570,28 +52882,28 @@
         <v>42614</v>
       </c>
       <c r="B239" s="8">
-        <v>-13988</v>
+        <v>-14028</v>
       </c>
       <c r="C239" s="8">
-        <v>-4192</v>
+        <v>-4224</v>
       </c>
       <c r="D239" s="8">
-        <v>83686</v>
+        <v>83680</v>
       </c>
       <c r="E239" s="8">
-        <v>-87878</v>
+        <v>-87905</v>
       </c>
       <c r="F239" s="8">
-        <v>-2911</v>
+        <v>-2927</v>
       </c>
       <c r="G239" s="8">
-        <v>63917</v>
+        <v>63910</v>
       </c>
       <c r="H239" s="8">
-        <v>10507</v>
+        <v>10505</v>
       </c>
       <c r="I239" s="8">
-        <v>47641</v>
+        <v>47638</v>
       </c>
       <c r="J239" s="8">
         <v>-1</v>
@@ -52600,70 +52912,70 @@
         <v>5769</v>
       </c>
       <c r="L239" s="8">
-        <v>-66827</v>
+        <v>-66837</v>
       </c>
       <c r="M239" s="8">
-        <v>-23828</v>
+        <v>-23838</v>
       </c>
       <c r="N239" s="8">
-        <v>-15407</v>
+        <v>-15408</v>
       </c>
       <c r="O239" s="8">
-        <v>-25708</v>
+        <v>-25707</v>
       </c>
       <c r="P239" s="8">
         <v>-1884</v>
       </c>
       <c r="Q239" s="8">
-        <v>-1281</v>
+        <v>-1297</v>
       </c>
       <c r="R239" s="8">
-        <v>19769</v>
+        <v>19770</v>
       </c>
       <c r="S239" s="8">
-        <v>-21050</v>
+        <v>-21068</v>
       </c>
       <c r="T239" s="8">
-        <v>-9396</v>
+        <v>-9404</v>
       </c>
       <c r="U239" s="8">
-        <v>13177</v>
+        <v>13174</v>
       </c>
       <c r="V239" s="8">
-        <v>-22573</v>
+        <v>-22578</v>
       </c>
       <c r="W239" s="8">
-        <v>-400</v>
+        <v>-399</v>
       </c>
       <c r="X239" s="8">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="Y239" s="8">
         <v>-2702</v>
       </c>
       <c r="Z239" s="8">
-        <v>-12353</v>
+        <v>-12372</v>
       </c>
       <c r="AA239" s="8">
-        <v>-1781</v>
+        <v>-1800</v>
       </c>
       <c r="AB239" s="8">
-        <v>85852</v>
+        <v>85845</v>
       </c>
       <c r="AC239" s="8">
-        <v>-87633</v>
+        <v>-87645</v>
       </c>
       <c r="AD239" s="8">
-        <v>-337</v>
+        <v>-354</v>
       </c>
       <c r="AE239" s="8">
-        <v>66315</v>
+        <v>66309</v>
       </c>
       <c r="AF239" s="8">
-        <v>10588</v>
+        <v>10589</v>
       </c>
       <c r="AG239" s="8">
-        <v>50346</v>
+        <v>50340</v>
       </c>
       <c r="AH239" s="8">
         <v>69</v>
@@ -52672,37 +52984,37 @@
         <v>5312</v>
       </c>
       <c r="AJ239" s="8">
-        <v>-66652</v>
+        <v>-66663</v>
       </c>
       <c r="AK239" s="8">
-        <v>-23742</v>
+        <v>-23743</v>
       </c>
       <c r="AL239" s="8">
-        <v>-15732</v>
+        <v>-15735</v>
       </c>
       <c r="AM239" s="8">
-        <v>-25533</v>
+        <v>-25539</v>
       </c>
       <c r="AN239" s="8">
         <v>-1645</v>
       </c>
       <c r="AO239" s="8">
-        <v>-1444</v>
+        <v>-1446</v>
       </c>
       <c r="AP239" s="8">
-        <v>19537</v>
+        <v>19536</v>
       </c>
       <c r="AQ239" s="8">
-        <v>-20981</v>
+        <v>-20982</v>
       </c>
       <c r="AR239" s="8">
-        <v>-10324</v>
+        <v>-10325</v>
       </c>
       <c r="AS239" s="8">
         <v>13380</v>
       </c>
       <c r="AT239" s="8">
-        <v>-23703</v>
+        <v>-23705</v>
       </c>
       <c r="AU239" s="8">
         <v>-248</v>
@@ -52719,28 +53031,28 @@
         <v>42705</v>
       </c>
       <c r="B240" s="8">
-        <v>-6300</v>
+        <v>-6350</v>
       </c>
       <c r="C240" s="8">
-        <v>6153</v>
+        <v>6093</v>
       </c>
       <c r="D240" s="8">
-        <v>95957</v>
+        <v>95938</v>
       </c>
       <c r="E240" s="8">
-        <v>-89804</v>
+        <v>-89844</v>
       </c>
       <c r="F240" s="8">
-        <v>7445</v>
+        <v>7377</v>
       </c>
       <c r="G240" s="8">
-        <v>75890</v>
+        <v>75879</v>
       </c>
       <c r="H240" s="8">
-        <v>11621</v>
+        <v>11627</v>
       </c>
       <c r="I240" s="8">
-        <v>59312</v>
+        <v>59295</v>
       </c>
       <c r="J240" s="8">
         <v>124</v>
@@ -52749,70 +53061,70 @@
         <v>4833</v>
       </c>
       <c r="L240" s="8">
-        <v>-68446</v>
+        <v>-68501</v>
       </c>
       <c r="M240" s="8">
-        <v>-23844</v>
+        <v>-23836</v>
       </c>
       <c r="N240" s="8">
-        <v>-17195</v>
+        <v>-17211</v>
       </c>
       <c r="O240" s="8">
-        <v>-26003</v>
+        <v>-26051</v>
       </c>
       <c r="P240" s="8">
         <v>-1403</v>
       </c>
       <c r="Q240" s="8">
-        <v>-1292</v>
+        <v>-1284</v>
       </c>
       <c r="R240" s="8">
-        <v>20067</v>
+        <v>20059</v>
       </c>
       <c r="S240" s="8">
-        <v>-21359</v>
+        <v>-21343</v>
       </c>
       <c r="T240" s="8">
-        <v>-12330</v>
+        <v>-12323</v>
       </c>
       <c r="U240" s="8">
-        <v>13967</v>
+        <v>13972</v>
       </c>
       <c r="V240" s="8">
-        <v>-26296</v>
+        <v>-26294</v>
       </c>
       <c r="W240" s="8">
-        <v>-123</v>
+        <v>-121</v>
       </c>
       <c r="X240" s="8">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="Y240" s="8">
         <v>-2522</v>
       </c>
       <c r="Z240" s="8">
-        <v>-9138</v>
+        <v>-9135</v>
       </c>
       <c r="AA240" s="8">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="AB240" s="8">
-        <v>92995</v>
+        <v>92990</v>
       </c>
       <c r="AC240" s="8">
-        <v>-90158</v>
+        <v>-90155</v>
       </c>
       <c r="AD240" s="8">
-        <v>4008</v>
+        <v>3996</v>
       </c>
       <c r="AE240" s="8">
-        <v>72822</v>
+        <v>72818</v>
       </c>
       <c r="AF240" s="8">
-        <v>11292</v>
+        <v>11294</v>
       </c>
       <c r="AG240" s="8">
-        <v>56426</v>
+        <v>56420</v>
       </c>
       <c r="AH240" s="8">
         <v>72</v>
@@ -52821,37 +53133,37 @@
         <v>5032</v>
       </c>
       <c r="AJ240" s="8">
-        <v>-68814</v>
+        <v>-68822</v>
       </c>
       <c r="AK240" s="8">
-        <v>-24109</v>
+        <v>-24106</v>
       </c>
       <c r="AL240" s="8">
-        <v>-16785</v>
+        <v>-16789</v>
       </c>
       <c r="AM240" s="8">
-        <v>-26314</v>
+        <v>-26321</v>
       </c>
       <c r="AN240" s="8">
         <v>-1606</v>
       </c>
       <c r="AO240" s="8">
-        <v>-1171</v>
+        <v>-1161</v>
       </c>
       <c r="AP240" s="8">
-        <v>20173</v>
+        <v>20172</v>
       </c>
       <c r="AQ240" s="8">
-        <v>-21344</v>
+        <v>-21333</v>
       </c>
       <c r="AR240" s="8">
-        <v>-11668</v>
+        <v>-11664</v>
       </c>
       <c r="AS240" s="8">
-        <v>13723</v>
+        <v>13724</v>
       </c>
       <c r="AT240" s="8">
-        <v>-25390</v>
+        <v>-25388</v>
       </c>
       <c r="AU240" s="8">
         <v>-307</v>
@@ -52868,25 +53180,25 @@
         <v>42795</v>
       </c>
       <c r="B241" s="8">
-        <v>-8512</v>
+        <v>-8401</v>
       </c>
       <c r="C241" s="8">
-        <v>4623</v>
+        <v>4724</v>
       </c>
       <c r="D241" s="8">
-        <v>97963</v>
+        <v>97973</v>
       </c>
       <c r="E241" s="8">
-        <v>-93340</v>
+        <v>-93249</v>
       </c>
       <c r="F241" s="8">
-        <v>5855</v>
+        <v>5907</v>
       </c>
       <c r="G241" s="8">
-        <v>77290</v>
+        <v>77292</v>
       </c>
       <c r="H241" s="8">
-        <v>12186</v>
+        <v>12188</v>
       </c>
       <c r="I241" s="8">
         <v>60754</v>
@@ -52898,70 +53210,70 @@
         <v>4301</v>
       </c>
       <c r="L241" s="8">
-        <v>-71435</v>
+        <v>-71385</v>
       </c>
       <c r="M241" s="8">
-        <v>-24708</v>
+        <v>-24705</v>
       </c>
       <c r="N241" s="8">
-        <v>-17766</v>
+        <v>-17759</v>
       </c>
       <c r="O241" s="8">
-        <v>-27396</v>
+        <v>-27356</v>
       </c>
       <c r="P241" s="8">
         <v>-1565</v>
       </c>
       <c r="Q241" s="8">
-        <v>-1231</v>
+        <v>-1184</v>
       </c>
       <c r="R241" s="8">
-        <v>20674</v>
+        <v>20681</v>
       </c>
       <c r="S241" s="8">
-        <v>-21905</v>
+        <v>-21864</v>
       </c>
       <c r="T241" s="8">
-        <v>-12668</v>
+        <v>-12657</v>
       </c>
       <c r="U241" s="8">
-        <v>13835</v>
+        <v>13836</v>
       </c>
       <c r="V241" s="8">
-        <v>-26504</v>
+        <v>-26492</v>
       </c>
       <c r="W241" s="8">
-        <v>-467</v>
+        <v>-468</v>
       </c>
       <c r="X241" s="8">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="Y241" s="8">
-        <v>-2967</v>
+        <v>-2965</v>
       </c>
       <c r="Z241" s="8">
-        <v>-7941</v>
+        <v>-7905</v>
       </c>
       <c r="AA241" s="8">
-        <v>5137</v>
+        <v>5170</v>
       </c>
       <c r="AB241" s="8">
-        <v>97472</v>
+        <v>97480</v>
       </c>
       <c r="AC241" s="8">
-        <v>-92335</v>
+        <v>-92310</v>
       </c>
       <c r="AD241" s="8">
-        <v>6067</v>
+        <v>6093</v>
       </c>
       <c r="AE241" s="8">
-        <v>76647</v>
+        <v>76655</v>
       </c>
       <c r="AF241" s="8">
-        <v>11981</v>
+        <v>11980</v>
       </c>
       <c r="AG241" s="8">
-        <v>59921</v>
+        <v>59929</v>
       </c>
       <c r="AH241" s="8">
         <v>94</v>
@@ -52970,46 +53282,46 @@
         <v>4651</v>
       </c>
       <c r="AJ241" s="8">
-        <v>-70580</v>
+        <v>-70562</v>
       </c>
       <c r="AK241" s="8">
-        <v>-24423</v>
+        <v>-24421</v>
       </c>
       <c r="AL241" s="8">
-        <v>-17786</v>
+        <v>-17784</v>
       </c>
       <c r="AM241" s="8">
-        <v>-26909</v>
+        <v>-26895</v>
       </c>
       <c r="AN241" s="8">
         <v>-1463</v>
       </c>
       <c r="AO241" s="8">
-        <v>-931</v>
+        <v>-924</v>
       </c>
       <c r="AP241" s="8">
-        <v>20824</v>
+        <v>20825</v>
       </c>
       <c r="AQ241" s="8">
-        <v>-21755</v>
+        <v>-21749</v>
       </c>
       <c r="AR241" s="8">
-        <v>-12732</v>
+        <v>-12729</v>
       </c>
       <c r="AS241" s="8">
         <v>13883</v>
       </c>
       <c r="AT241" s="8">
-        <v>-26615</v>
+        <v>-26612</v>
       </c>
       <c r="AU241" s="8">
         <v>-346</v>
       </c>
       <c r="AV241" s="8">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="AW241" s="8">
-        <v>-2829</v>
+        <v>-2828</v>
       </c>
     </row>
     <row r="242" spans="1:49" x14ac:dyDescent="0.2">
@@ -53017,28 +53329,28 @@
         <v>42887</v>
       </c>
       <c r="B242" s="8">
-        <v>-11280</v>
+        <v>-11263</v>
       </c>
       <c r="C242" s="8">
-        <v>2556</v>
+        <v>2585</v>
       </c>
       <c r="D242" s="8">
-        <v>96078</v>
+        <v>96106</v>
       </c>
       <c r="E242" s="8">
-        <v>-93522</v>
+        <v>-93521</v>
       </c>
       <c r="F242" s="8">
-        <v>3274</v>
+        <v>3341</v>
       </c>
       <c r="G242" s="8">
-        <v>74462</v>
+        <v>74490</v>
       </c>
       <c r="H242" s="8">
-        <v>12209</v>
+        <v>12201</v>
       </c>
       <c r="I242" s="8">
-        <v>57198</v>
+        <v>57233</v>
       </c>
       <c r="J242" s="8">
         <v>146</v>
@@ -53047,70 +53359,70 @@
         <v>4909</v>
       </c>
       <c r="L242" s="8">
-        <v>-71188</v>
+        <v>-71148</v>
       </c>
       <c r="M242" s="8">
-        <v>-24832</v>
+        <v>-24829</v>
       </c>
       <c r="N242" s="8">
-        <v>-17681</v>
+        <v>-17670</v>
       </c>
       <c r="O242" s="8">
-        <v>-27396</v>
+        <v>-27371</v>
       </c>
       <c r="P242" s="8">
         <v>-1279</v>
       </c>
       <c r="Q242" s="8">
-        <v>-718</v>
+        <v>-757</v>
       </c>
       <c r="R242" s="8">
         <v>21616</v>
       </c>
       <c r="S242" s="8">
-        <v>-22334</v>
+        <v>-22372</v>
       </c>
       <c r="T242" s="8">
-        <v>-13489</v>
+        <v>-13500</v>
       </c>
       <c r="U242" s="8">
-        <v>13993</v>
+        <v>13990</v>
       </c>
       <c r="V242" s="8">
-        <v>-27482</v>
+        <v>-27490</v>
       </c>
       <c r="W242" s="8">
-        <v>-347</v>
+        <v>-348</v>
       </c>
       <c r="X242" s="8">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="Y242" s="8">
-        <v>-2879</v>
+        <v>-2881</v>
       </c>
       <c r="Z242" s="8">
-        <v>-9748</v>
+        <v>-9742</v>
       </c>
       <c r="AA242" s="8">
-        <v>4119</v>
+        <v>4134</v>
       </c>
       <c r="AB242" s="8">
-        <v>97818</v>
+        <v>97832</v>
       </c>
       <c r="AC242" s="8">
-        <v>-93699</v>
+        <v>-93698</v>
       </c>
       <c r="AD242" s="8">
-        <v>5041</v>
+        <v>5070</v>
       </c>
       <c r="AE242" s="8">
-        <v>76626</v>
+        <v>76640</v>
       </c>
       <c r="AF242" s="8">
-        <v>12318</v>
+        <v>12316</v>
       </c>
       <c r="AG242" s="8">
-        <v>59746</v>
+        <v>59763</v>
       </c>
       <c r="AH242" s="8">
         <v>103</v>
@@ -53119,46 +53431,46 @@
         <v>4460</v>
       </c>
       <c r="AJ242" s="8">
-        <v>-71585</v>
+        <v>-71570</v>
       </c>
       <c r="AK242" s="8">
-        <v>-24718</v>
+        <v>-24721</v>
       </c>
       <c r="AL242" s="8">
-        <v>-18199</v>
+        <v>-18194</v>
       </c>
       <c r="AM242" s="8">
-        <v>-27351</v>
+        <v>-27339</v>
       </c>
       <c r="AN242" s="8">
         <v>-1316</v>
       </c>
       <c r="AO242" s="8">
-        <v>-922</v>
+        <v>-937</v>
       </c>
       <c r="AP242" s="8">
-        <v>21192</v>
+        <v>21191</v>
       </c>
       <c r="AQ242" s="8">
-        <v>-22114</v>
+        <v>-22128</v>
       </c>
       <c r="AR242" s="8">
-        <v>-13510</v>
+        <v>-13518</v>
       </c>
       <c r="AS242" s="8">
-        <v>13915</v>
+        <v>13914</v>
       </c>
       <c r="AT242" s="8">
-        <v>-27425</v>
+        <v>-27432</v>
       </c>
       <c r="AU242" s="8">
-        <v>-357</v>
+        <v>-358</v>
       </c>
       <c r="AV242" s="8">
         <v>2511</v>
       </c>
       <c r="AW242" s="8">
-        <v>-2868</v>
+        <v>-2869</v>
       </c>
     </row>
     <row r="243" spans="1:49" x14ac:dyDescent="0.2">
@@ -53166,28 +53478,28 @@
         <v>42979</v>
       </c>
       <c r="B243" s="8">
-        <v>-11702</v>
+        <v>-11767</v>
       </c>
       <c r="C243" s="8">
-        <v>2305</v>
+        <v>2257</v>
       </c>
       <c r="D243" s="8">
-        <v>96669</v>
+        <v>96664</v>
       </c>
       <c r="E243" s="8">
-        <v>-94363</v>
+        <v>-94407</v>
       </c>
       <c r="F243" s="8">
-        <v>3273</v>
+        <v>3257</v>
       </c>
       <c r="G243" s="8">
-        <v>75393</v>
+        <v>75389</v>
       </c>
       <c r="H243" s="8">
-        <v>12365</v>
+        <v>12359</v>
       </c>
       <c r="I243" s="8">
-        <v>58585</v>
+        <v>58586</v>
       </c>
       <c r="J243" s="8">
         <v>70</v>
@@ -53196,37 +53508,37 @@
         <v>4374</v>
       </c>
       <c r="L243" s="8">
-        <v>-72121</v>
+        <v>-72132</v>
       </c>
       <c r="M243" s="8">
-        <v>-24531</v>
+        <v>-24551</v>
       </c>
       <c r="N243" s="8">
-        <v>-18639</v>
+        <v>-18636</v>
       </c>
       <c r="O243" s="8">
-        <v>-27657</v>
+        <v>-27651</v>
       </c>
       <c r="P243" s="8">
         <v>-1294</v>
       </c>
       <c r="Q243" s="8">
-        <v>-967</v>
+        <v>-1000</v>
       </c>
       <c r="R243" s="8">
         <v>21275</v>
       </c>
       <c r="S243" s="8">
-        <v>-22243</v>
+        <v>-22275</v>
       </c>
       <c r="T243" s="8">
-        <v>-13736</v>
+        <v>-13753</v>
       </c>
       <c r="U243" s="8">
-        <v>13865</v>
+        <v>13861</v>
       </c>
       <c r="V243" s="8">
-        <v>-27601</v>
+        <v>-27614</v>
       </c>
       <c r="W243" s="8">
         <v>-271</v>
@@ -53238,28 +53550,28 @@
         <v>-2770</v>
       </c>
       <c r="Z243" s="8">
-        <v>-12097</v>
+        <v>-12127</v>
       </c>
       <c r="AA243" s="8">
-        <v>1975</v>
+        <v>1951</v>
       </c>
       <c r="AB243" s="8">
-        <v>96935</v>
+        <v>96925</v>
       </c>
       <c r="AC243" s="8">
-        <v>-94959</v>
+        <v>-94974</v>
       </c>
       <c r="AD243" s="8">
-        <v>3092</v>
+        <v>3073</v>
       </c>
       <c r="AE243" s="8">
-        <v>75546</v>
+        <v>75538</v>
       </c>
       <c r="AF243" s="8">
         <v>12078</v>
       </c>
       <c r="AG243" s="8">
-        <v>58772</v>
+        <v>58764</v>
       </c>
       <c r="AH243" s="8">
         <v>77</v>
@@ -53268,43 +53580,43 @@
         <v>4619</v>
       </c>
       <c r="AJ243" s="8">
-        <v>-72455</v>
+        <v>-72465</v>
       </c>
       <c r="AK243" s="8">
-        <v>-25057</v>
+        <v>-25060</v>
       </c>
       <c r="AL243" s="8">
-        <v>-18091</v>
+        <v>-18089</v>
       </c>
       <c r="AM243" s="8">
-        <v>-28056</v>
+        <v>-28065</v>
       </c>
       <c r="AN243" s="8">
         <v>-1250</v>
       </c>
       <c r="AO243" s="8">
-        <v>-1117</v>
+        <v>-1122</v>
       </c>
       <c r="AP243" s="8">
-        <v>21388</v>
+        <v>21387</v>
       </c>
       <c r="AQ243" s="8">
-        <v>-22505</v>
+        <v>-22510</v>
       </c>
       <c r="AR243" s="8">
-        <v>-13761</v>
+        <v>-13767</v>
       </c>
       <c r="AS243" s="8">
         <v>14004</v>
       </c>
       <c r="AT243" s="8">
-        <v>-27765</v>
+        <v>-27771</v>
       </c>
       <c r="AU243" s="8">
-        <v>-312</v>
+        <v>-311</v>
       </c>
       <c r="AV243" s="8">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="AW243" s="8">
         <v>-2809</v>
@@ -53315,28 +53627,28 @@
         <v>43070</v>
       </c>
       <c r="B244" s="8">
-        <v>-14883</v>
+        <v>-14964</v>
       </c>
       <c r="C244" s="8">
-        <v>-282</v>
+        <v>-365</v>
       </c>
       <c r="D244" s="8">
-        <v>96583</v>
+        <v>96551</v>
       </c>
       <c r="E244" s="8">
-        <v>-96865</v>
+        <v>-96916</v>
       </c>
       <c r="F244" s="8">
-        <v>1396</v>
+        <v>1291</v>
       </c>
       <c r="G244" s="8">
-        <v>75300</v>
+        <v>75279</v>
       </c>
       <c r="H244" s="8">
-        <v>11565</v>
+        <v>11577</v>
       </c>
       <c r="I244" s="8">
-        <v>58989</v>
+        <v>58955</v>
       </c>
       <c r="J244" s="8">
         <v>33</v>
@@ -53345,70 +53657,70 @@
         <v>4714</v>
       </c>
       <c r="L244" s="8">
-        <v>-73905</v>
+        <v>-73988</v>
       </c>
       <c r="M244" s="8">
-        <v>-25889</v>
+        <v>-25878</v>
       </c>
       <c r="N244" s="8">
-        <v>-17409</v>
+        <v>-17421</v>
       </c>
       <c r="O244" s="8">
-        <v>-29399</v>
+        <v>-29482</v>
       </c>
       <c r="P244" s="8">
         <v>-1207</v>
       </c>
       <c r="Q244" s="8">
-        <v>-1677</v>
+        <v>-1656</v>
       </c>
       <c r="R244" s="8">
-        <v>21283</v>
+        <v>21273</v>
       </c>
       <c r="S244" s="8">
-        <v>-22960</v>
+        <v>-22928</v>
       </c>
       <c r="T244" s="8">
-        <v>-14313</v>
+        <v>-14314</v>
       </c>
       <c r="U244" s="8">
-        <v>14441</v>
+        <v>14449</v>
       </c>
       <c r="V244" s="8">
-        <v>-28754</v>
+        <v>-28762</v>
       </c>
       <c r="W244" s="8">
-        <v>-288</v>
+        <v>-285</v>
       </c>
       <c r="X244" s="8">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="Y244" s="8">
         <v>-2725</v>
       </c>
       <c r="Z244" s="8">
-        <v>-13373</v>
+        <v>-13364</v>
       </c>
       <c r="AA244" s="8">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AB244" s="8">
-        <v>98263</v>
+        <v>98248</v>
       </c>
       <c r="AC244" s="8">
-        <v>-97367</v>
+        <v>-97355</v>
       </c>
       <c r="AD244" s="8">
-        <v>2367</v>
+        <v>2343</v>
       </c>
       <c r="AE244" s="8">
-        <v>76639</v>
+        <v>76625</v>
       </c>
       <c r="AF244" s="8">
-        <v>11641</v>
+        <v>11645</v>
       </c>
       <c r="AG244" s="8">
-        <v>60003</v>
+        <v>59985</v>
       </c>
       <c r="AH244" s="8">
         <v>46</v>
@@ -53417,37 +53729,37 @@
         <v>4948</v>
       </c>
       <c r="AJ244" s="8">
-        <v>-74271</v>
+        <v>-74282</v>
       </c>
       <c r="AK244" s="8">
-        <v>-25463</v>
+        <v>-25458</v>
       </c>
       <c r="AL244" s="8">
-        <v>-18105</v>
+        <v>-18104</v>
       </c>
       <c r="AM244" s="8">
-        <v>-29342</v>
+        <v>-29358</v>
       </c>
       <c r="AN244" s="8">
         <v>-1362</v>
       </c>
       <c r="AO244" s="8">
-        <v>-1472</v>
+        <v>-1450</v>
       </c>
       <c r="AP244" s="8">
-        <v>21624</v>
+        <v>21623</v>
       </c>
       <c r="AQ244" s="8">
-        <v>-23096</v>
+        <v>-23073</v>
       </c>
       <c r="AR244" s="8">
-        <v>-14070</v>
+        <v>-14058</v>
       </c>
       <c r="AS244" s="8">
-        <v>14423</v>
+        <v>14424</v>
       </c>
       <c r="AT244" s="8">
-        <v>-28493</v>
+        <v>-28481</v>
       </c>
       <c r="AU244" s="8">
         <v>-199</v>
@@ -53464,28 +53776,28 @@
         <v>43160</v>
       </c>
       <c r="B245" s="8">
-        <v>-12159</v>
+        <v>-11982</v>
       </c>
       <c r="C245" s="8">
-        <v>1919</v>
+        <v>2046</v>
       </c>
       <c r="D245" s="8">
-        <v>103432</v>
+        <v>103397</v>
       </c>
       <c r="E245" s="8">
-        <v>-101513</v>
+        <v>-101351</v>
       </c>
       <c r="F245" s="8">
-        <v>3696</v>
+        <v>3728</v>
       </c>
       <c r="G245" s="8">
-        <v>81044</v>
+        <v>80994</v>
       </c>
       <c r="H245" s="8">
-        <v>11098</v>
+        <v>11101</v>
       </c>
       <c r="I245" s="8">
-        <v>64199</v>
+        <v>64146</v>
       </c>
       <c r="J245" s="8">
         <v>32</v>
@@ -53494,70 +53806,70 @@
         <v>5715</v>
       </c>
       <c r="L245" s="8">
-        <v>-77348</v>
+        <v>-77266</v>
       </c>
       <c r="M245" s="8">
-        <v>-25722</v>
+        <v>-25703</v>
       </c>
       <c r="N245" s="8">
-        <v>-18722</v>
+        <v>-18713</v>
       </c>
       <c r="O245" s="8">
-        <v>-31301</v>
+        <v>-31248</v>
       </c>
       <c r="P245" s="8">
         <v>-1602</v>
       </c>
       <c r="Q245" s="8">
-        <v>-1777</v>
+        <v>-1682</v>
       </c>
       <c r="R245" s="8">
-        <v>22388</v>
+        <v>22403</v>
       </c>
       <c r="S245" s="8">
-        <v>-24165</v>
+        <v>-24085</v>
       </c>
       <c r="T245" s="8">
-        <v>-14020</v>
+        <v>-13969</v>
       </c>
       <c r="U245" s="8">
-        <v>15126</v>
+        <v>15125</v>
       </c>
       <c r="V245" s="8">
-        <v>-29146</v>
+        <v>-29094</v>
       </c>
       <c r="W245" s="8">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="X245" s="8">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="Y245" s="8">
-        <v>-2624</v>
+        <v>-2621</v>
       </c>
       <c r="Z245" s="8">
-        <v>-13505</v>
+        <v>-13437</v>
       </c>
       <c r="AA245" s="8">
-        <v>1269</v>
+        <v>1327</v>
       </c>
       <c r="AB245" s="8">
-        <v>102101</v>
+        <v>102113</v>
       </c>
       <c r="AC245" s="8">
-        <v>-100832</v>
+        <v>-100786</v>
       </c>
       <c r="AD245" s="8">
-        <v>3007</v>
+        <v>3050</v>
       </c>
       <c r="AE245" s="8">
-        <v>79963</v>
+        <v>79974</v>
       </c>
       <c r="AF245" s="8">
-        <v>11599</v>
+        <v>11598</v>
       </c>
       <c r="AG245" s="8">
-        <v>62951</v>
+        <v>62963</v>
       </c>
       <c r="AH245" s="8">
         <v>27</v>
@@ -53566,46 +53878,46 @@
         <v>5386</v>
       </c>
       <c r="AJ245" s="8">
-        <v>-76956</v>
+        <v>-76924</v>
       </c>
       <c r="AK245" s="8">
-        <v>-25801</v>
+        <v>-25794</v>
       </c>
       <c r="AL245" s="8">
-        <v>-18426</v>
+        <v>-18422</v>
       </c>
       <c r="AM245" s="8">
-        <v>-31109</v>
+        <v>-31088</v>
       </c>
       <c r="AN245" s="8">
         <v>-1619</v>
       </c>
       <c r="AO245" s="8">
-        <v>-1738</v>
+        <v>-1723</v>
       </c>
       <c r="AP245" s="8">
-        <v>22139</v>
+        <v>22140</v>
       </c>
       <c r="AQ245" s="8">
-        <v>-23877</v>
+        <v>-23863</v>
       </c>
       <c r="AR245" s="8">
-        <v>-14609</v>
+        <v>-14598</v>
       </c>
       <c r="AS245" s="8">
-        <v>15202</v>
+        <v>15200</v>
       </c>
       <c r="AT245" s="8">
-        <v>-29810</v>
+        <v>-29798</v>
       </c>
       <c r="AU245" s="8">
-        <v>-165</v>
+        <v>-166</v>
       </c>
       <c r="AV245" s="8">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="AW245" s="8">
-        <v>-2685</v>
+        <v>-2684</v>
       </c>
     </row>
     <row r="246" spans="1:49" x14ac:dyDescent="0.2">
@@ -53613,28 +53925,28 @@
         <v>43252</v>
       </c>
       <c r="B246" s="8">
-        <v>-13576</v>
+        <v>-13486</v>
       </c>
       <c r="C246" s="8">
-        <v>2187</v>
+        <v>2298</v>
       </c>
       <c r="D246" s="8">
-        <v>106586</v>
+        <v>106712</v>
       </c>
       <c r="E246" s="8">
-        <v>-104399</v>
+        <v>-104414</v>
       </c>
       <c r="F246" s="8">
-        <v>3918</v>
+        <v>4108</v>
       </c>
       <c r="G246" s="8">
-        <v>83771</v>
+        <v>83907</v>
       </c>
       <c r="H246" s="8">
-        <v>12131</v>
+        <v>12121</v>
       </c>
       <c r="I246" s="8">
-        <v>66216</v>
+        <v>66362</v>
       </c>
       <c r="J246" s="8">
         <v>34</v>
@@ -53643,70 +53955,70 @@
         <v>5390</v>
       </c>
       <c r="L246" s="8">
-        <v>-79853</v>
+        <v>-79798</v>
       </c>
       <c r="M246" s="8">
-        <v>-25923</v>
+        <v>-25929</v>
       </c>
       <c r="N246" s="8">
-        <v>-19374</v>
+        <v>-19361</v>
       </c>
       <c r="O246" s="8">
-        <v>-32559</v>
+        <v>-32512</v>
       </c>
       <c r="P246" s="8">
         <v>-1996</v>
       </c>
       <c r="Q246" s="8">
-        <v>-1731</v>
+        <v>-1810</v>
       </c>
       <c r="R246" s="8">
-        <v>22816</v>
+        <v>22806</v>
       </c>
       <c r="S246" s="8">
-        <v>-24547</v>
+        <v>-24616</v>
       </c>
       <c r="T246" s="8">
-        <v>-15586</v>
+        <v>-15604</v>
       </c>
       <c r="U246" s="8">
-        <v>16140</v>
+        <v>16130</v>
       </c>
       <c r="V246" s="8">
-        <v>-31726</v>
+        <v>-31735</v>
       </c>
       <c r="W246" s="8">
-        <v>-177</v>
+        <v>-180</v>
       </c>
       <c r="X246" s="8">
         <v>2548</v>
       </c>
       <c r="Y246" s="8">
-        <v>-2726</v>
+        <v>-2728</v>
       </c>
       <c r="Z246" s="8">
-        <v>-11984</v>
+        <v>-11972</v>
       </c>
       <c r="AA246" s="8">
-        <v>3543</v>
+        <v>3576</v>
       </c>
       <c r="AB246" s="8">
-        <v>107233</v>
+        <v>107272</v>
       </c>
       <c r="AC246" s="8">
-        <v>-103690</v>
+        <v>-103696</v>
       </c>
       <c r="AD246" s="8">
-        <v>5371</v>
+        <v>5433</v>
       </c>
       <c r="AE246" s="8">
-        <v>84391</v>
+        <v>84433</v>
       </c>
       <c r="AF246" s="8">
-        <v>11861</v>
+        <v>11856</v>
       </c>
       <c r="AG246" s="8">
-        <v>67107</v>
+        <v>67154</v>
       </c>
       <c r="AH246" s="8">
         <v>46</v>
@@ -53715,46 +54027,46 @@
         <v>5377</v>
       </c>
       <c r="AJ246" s="8">
-        <v>-79020</v>
+        <v>-79000</v>
       </c>
       <c r="AK246" s="8">
-        <v>-25836</v>
+        <v>-25841</v>
       </c>
       <c r="AL246" s="8">
-        <v>-18849</v>
+        <v>-18847</v>
       </c>
       <c r="AM246" s="8">
-        <v>-32617</v>
+        <v>-32596</v>
       </c>
       <c r="AN246" s="8">
         <v>-1717</v>
       </c>
       <c r="AO246" s="8">
-        <v>-1829</v>
+        <v>-1857</v>
       </c>
       <c r="AP246" s="8">
-        <v>22842</v>
+        <v>22839</v>
       </c>
       <c r="AQ246" s="8">
-        <v>-24670</v>
+        <v>-24695</v>
       </c>
       <c r="AR246" s="8">
-        <v>-15350</v>
+        <v>-15371</v>
       </c>
       <c r="AS246" s="8">
-        <v>16103</v>
+        <v>16104</v>
       </c>
       <c r="AT246" s="8">
-        <v>-31453</v>
+        <v>-31475</v>
       </c>
       <c r="AU246" s="8">
-        <v>-176</v>
+        <v>-177</v>
       </c>
       <c r="AV246" s="8">
         <v>2574</v>
       </c>
       <c r="AW246" s="8">
-        <v>-2751</v>
+        <v>-2752</v>
       </c>
     </row>
     <row r="247" spans="1:49" x14ac:dyDescent="0.2">
@@ -53762,28 +54074,28 @@
         <v>43344</v>
       </c>
       <c r="B247" s="8">
-        <v>-9412</v>
+        <v>-9589</v>
       </c>
       <c r="C247" s="8">
-        <v>7123</v>
+        <v>7016</v>
       </c>
       <c r="D247" s="8">
-        <v>112517</v>
+        <v>112490</v>
       </c>
       <c r="E247" s="8">
-        <v>-105394</v>
+        <v>-105475</v>
       </c>
       <c r="F247" s="8">
-        <v>8790</v>
+        <v>8753</v>
       </c>
       <c r="G247" s="8">
-        <v>89079</v>
+        <v>89054</v>
       </c>
       <c r="H247" s="8">
-        <v>12518</v>
+        <v>12502</v>
       </c>
       <c r="I247" s="8">
-        <v>71164</v>
+        <v>71155</v>
       </c>
       <c r="J247" s="8">
         <v>82</v>
@@ -53792,70 +54104,70 @@
         <v>5316</v>
       </c>
       <c r="L247" s="8">
-        <v>-80289</v>
+        <v>-80301</v>
       </c>
       <c r="M247" s="8">
-        <v>-25679</v>
+        <v>-25700</v>
       </c>
       <c r="N247" s="8">
-        <v>-19458</v>
+        <v>-19469</v>
       </c>
       <c r="O247" s="8">
-        <v>-33668</v>
+        <v>-33649</v>
       </c>
       <c r="P247" s="8">
         <v>-1484</v>
       </c>
       <c r="Q247" s="8">
-        <v>-1667</v>
+        <v>-1738</v>
       </c>
       <c r="R247" s="8">
-        <v>23438</v>
+        <v>23436</v>
       </c>
       <c r="S247" s="8">
-        <v>-25105</v>
+        <v>-25173</v>
       </c>
       <c r="T247" s="8">
-        <v>-16204</v>
+        <v>-16275</v>
       </c>
       <c r="U247" s="8">
-        <v>17147</v>
+        <v>17155</v>
       </c>
       <c r="V247" s="8">
-        <v>-33351</v>
+        <v>-33430</v>
       </c>
       <c r="W247" s="8">
-        <v>-331</v>
+        <v>-330</v>
       </c>
       <c r="X247" s="8">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="Y247" s="8">
-        <v>-2963</v>
+        <v>-2964</v>
       </c>
       <c r="Z247" s="8">
-        <v>-9662</v>
+        <v>-9722</v>
       </c>
       <c r="AA247" s="8">
-        <v>6523</v>
+        <v>6478</v>
       </c>
       <c r="AB247" s="8">
-        <v>111739</v>
+        <v>111729</v>
       </c>
       <c r="AC247" s="8">
-        <v>-105215</v>
+        <v>-105251</v>
       </c>
       <c r="AD247" s="8">
-        <v>8286</v>
+        <v>8254</v>
       </c>
       <c r="AE247" s="8">
-        <v>88302</v>
+        <v>88295</v>
       </c>
       <c r="AF247" s="8">
-        <v>12145</v>
+        <v>12143</v>
       </c>
       <c r="AG247" s="8">
-        <v>71105</v>
+        <v>71100</v>
       </c>
       <c r="AH247" s="8">
         <v>79</v>
@@ -53864,46 +54176,46 @@
         <v>4972</v>
       </c>
       <c r="AJ247" s="8">
-        <v>-80016</v>
+        <v>-80041</v>
       </c>
       <c r="AK247" s="8">
-        <v>-25829</v>
+        <v>-25836</v>
       </c>
       <c r="AL247" s="8">
-        <v>-19242</v>
+        <v>-19247</v>
       </c>
       <c r="AM247" s="8">
-        <v>-33380</v>
+        <v>-33392</v>
       </c>
       <c r="AN247" s="8">
         <v>-1565</v>
       </c>
       <c r="AO247" s="8">
-        <v>-1762</v>
+        <v>-1776</v>
       </c>
       <c r="AP247" s="8">
-        <v>23437</v>
+        <v>23434</v>
       </c>
       <c r="AQ247" s="8">
-        <v>-25199</v>
+        <v>-25211</v>
       </c>
       <c r="AR247" s="8">
-        <v>-15928</v>
+        <v>-15943</v>
       </c>
       <c r="AS247" s="8">
-        <v>17003</v>
+        <v>17008</v>
       </c>
       <c r="AT247" s="8">
-        <v>-32931</v>
+        <v>-32951</v>
       </c>
       <c r="AU247" s="8">
-        <v>-258</v>
+        <v>-257</v>
       </c>
       <c r="AV247" s="8">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AW247" s="8">
-        <v>-2875</v>
+        <v>-2876</v>
       </c>
     </row>
     <row r="248" spans="1:49" x14ac:dyDescent="0.2">
@@ -53911,28 +54223,28 @@
         <v>43435</v>
       </c>
       <c r="B248" s="8">
-        <v>-5383</v>
+        <v>-5515</v>
       </c>
       <c r="C248" s="8">
-        <v>10525</v>
+        <v>10381</v>
       </c>
       <c r="D248" s="8">
-        <v>115966</v>
+        <v>115927</v>
       </c>
       <c r="E248" s="8">
-        <v>-105442</v>
+        <v>-105546</v>
       </c>
       <c r="F248" s="8">
-        <v>12377</v>
+        <v>12175</v>
       </c>
       <c r="G248" s="8">
-        <v>92013</v>
+        <v>91986</v>
       </c>
       <c r="H248" s="8">
-        <v>11645</v>
+        <v>11669</v>
       </c>
       <c r="I248" s="8">
-        <v>76504</v>
+        <v>76452</v>
       </c>
       <c r="J248" s="8">
         <v>107</v>
@@ -53941,70 +54253,70 @@
         <v>3757</v>
       </c>
       <c r="L248" s="8">
-        <v>-79636</v>
+        <v>-79810</v>
       </c>
       <c r="M248" s="8">
-        <v>-25873</v>
+        <v>-25877</v>
       </c>
       <c r="N248" s="8">
-        <v>-19104</v>
+        <v>-19124</v>
       </c>
       <c r="O248" s="8">
-        <v>-33457</v>
+        <v>-33608</v>
       </c>
       <c r="P248" s="8">
         <v>-1202</v>
       </c>
       <c r="Q248" s="8">
-        <v>-1853</v>
+        <v>-1794</v>
       </c>
       <c r="R248" s="8">
-        <v>23954</v>
+        <v>23942</v>
       </c>
       <c r="S248" s="8">
-        <v>-25806</v>
+        <v>-25736</v>
       </c>
       <c r="T248" s="8">
-        <v>-15729</v>
+        <v>-15719</v>
       </c>
       <c r="U248" s="8">
-        <v>17371</v>
+        <v>17388</v>
       </c>
       <c r="V248" s="8">
-        <v>-33100</v>
+        <v>-33107</v>
       </c>
       <c r="W248" s="8">
-        <v>-178</v>
+        <v>-177</v>
       </c>
       <c r="X248" s="8">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="Y248" s="8">
-        <v>-2836</v>
+        <v>-2838</v>
       </c>
       <c r="Z248" s="8">
         <v>-6474</v>
       </c>
       <c r="AA248" s="8">
-        <v>9781</v>
+        <v>9753</v>
       </c>
       <c r="AB248" s="8">
-        <v>115415</v>
+        <v>115380</v>
       </c>
       <c r="AC248" s="8">
-        <v>-105634</v>
+        <v>-105626</v>
       </c>
       <c r="AD248" s="8">
-        <v>11308</v>
+        <v>11244</v>
       </c>
       <c r="AE248" s="8">
-        <v>91479</v>
+        <v>91443</v>
       </c>
       <c r="AF248" s="8">
-        <v>12146</v>
+        <v>12151</v>
       </c>
       <c r="AG248" s="8">
-        <v>74659</v>
+        <v>74618</v>
       </c>
       <c r="AH248" s="8">
         <v>94</v>
@@ -54013,46 +54325,46 @@
         <v>4579</v>
       </c>
       <c r="AJ248" s="8">
-        <v>-80171</v>
+        <v>-80199</v>
       </c>
       <c r="AK248" s="8">
-        <v>-25983</v>
+        <v>-25977</v>
       </c>
       <c r="AL248" s="8">
-        <v>-19509</v>
+        <v>-19513</v>
       </c>
       <c r="AM248" s="8">
-        <v>-33398</v>
+        <v>-33429</v>
       </c>
       <c r="AN248" s="8">
         <v>-1281</v>
       </c>
       <c r="AO248" s="8">
-        <v>-1526</v>
+        <v>-1490</v>
       </c>
       <c r="AP248" s="8">
         <v>23937</v>
       </c>
       <c r="AQ248" s="8">
-        <v>-25463</v>
+        <v>-25427</v>
       </c>
       <c r="AR248" s="8">
-        <v>-15982</v>
+        <v>-15955</v>
       </c>
       <c r="AS248" s="8">
-        <v>17714</v>
+        <v>17717</v>
       </c>
       <c r="AT248" s="8">
-        <v>-33696</v>
+        <v>-33672</v>
       </c>
       <c r="AU248" s="8">
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="AV248" s="8">
         <v>2649</v>
       </c>
       <c r="AW248" s="8">
-        <v>-2922</v>
+        <v>-2921</v>
       </c>
     </row>
     <row r="249" spans="1:49" x14ac:dyDescent="0.2">
@@ -54060,28 +54372,28 @@
         <v>43525</v>
       </c>
       <c r="B249" s="8">
-        <v>-4072</v>
+        <v>-3784</v>
       </c>
       <c r="C249" s="8">
-        <v>11891</v>
+        <v>12025</v>
       </c>
       <c r="D249" s="8">
-        <v>117866</v>
+        <v>117718</v>
       </c>
       <c r="E249" s="8">
-        <v>-105976</v>
+        <v>-105694</v>
       </c>
       <c r="F249" s="8">
-        <v>12702</v>
+        <v>12682</v>
       </c>
       <c r="G249" s="8">
-        <v>93378</v>
+        <v>93200</v>
       </c>
       <c r="H249" s="8">
         <v>12205</v>
       </c>
       <c r="I249" s="8">
-        <v>75507</v>
+        <v>75329</v>
       </c>
       <c r="J249" s="8">
         <v>91</v>
@@ -54090,70 +54402,70 @@
         <v>5575</v>
       </c>
       <c r="L249" s="8">
-        <v>-80676</v>
+        <v>-80518</v>
       </c>
       <c r="M249" s="8">
-        <v>-26485</v>
+        <v>-26432</v>
       </c>
       <c r="N249" s="8">
-        <v>-19955</v>
+        <v>-19935</v>
       </c>
       <c r="O249" s="8">
-        <v>-32903</v>
+        <v>-32817</v>
       </c>
       <c r="P249" s="8">
         <v>-1333</v>
       </c>
       <c r="Q249" s="8">
-        <v>-811</v>
+        <v>-658</v>
       </c>
       <c r="R249" s="8">
-        <v>24489</v>
+        <v>24518</v>
       </c>
       <c r="S249" s="8">
-        <v>-25300</v>
+        <v>-25176</v>
       </c>
       <c r="T249" s="8">
-        <v>-15575</v>
+        <v>-15423</v>
       </c>
       <c r="U249" s="8">
-        <v>18542</v>
+        <v>18528</v>
       </c>
       <c r="V249" s="8">
-        <v>-34117</v>
+        <v>-33952</v>
       </c>
       <c r="W249" s="8">
-        <v>-387</v>
+        <v>-386</v>
       </c>
       <c r="X249" s="8">
-        <v>2658</v>
+        <v>2650</v>
       </c>
       <c r="Y249" s="8">
-        <v>-3045</v>
+        <v>-3036</v>
       </c>
       <c r="Z249" s="8">
-        <v>-1396</v>
+        <v>-1309</v>
       </c>
       <c r="AA249" s="8">
-        <v>14202</v>
+        <v>14264</v>
       </c>
       <c r="AB249" s="8">
-        <v>119884</v>
+        <v>119872</v>
       </c>
       <c r="AC249" s="8">
-        <v>-105681</v>
+        <v>-105609</v>
       </c>
       <c r="AD249" s="8">
-        <v>15256</v>
+        <v>15286</v>
       </c>
       <c r="AE249" s="8">
-        <v>95370</v>
+        <v>95357</v>
       </c>
       <c r="AF249" s="8">
-        <v>11896</v>
+        <v>11895</v>
       </c>
       <c r="AG249" s="8">
-        <v>78443</v>
+        <v>78431</v>
       </c>
       <c r="AH249" s="8">
         <v>77</v>
@@ -54162,46 +54474,46 @@
         <v>4955</v>
       </c>
       <c r="AJ249" s="8">
-        <v>-80115</v>
+        <v>-80072</v>
       </c>
       <c r="AK249" s="8">
-        <v>-26130</v>
+        <v>-26115</v>
       </c>
       <c r="AL249" s="8">
-        <v>-19619</v>
+        <v>-19609</v>
       </c>
       <c r="AM249" s="8">
-        <v>-32978</v>
+        <v>-32959</v>
       </c>
       <c r="AN249" s="8">
         <v>-1389</v>
       </c>
       <c r="AO249" s="8">
-        <v>-1053</v>
+        <v>-1022</v>
       </c>
       <c r="AP249" s="8">
-        <v>24514</v>
+        <v>24515</v>
       </c>
       <c r="AQ249" s="8">
-        <v>-25567</v>
+        <v>-25537</v>
       </c>
       <c r="AR249" s="8">
-        <v>-15421</v>
+        <v>-15395</v>
       </c>
       <c r="AS249" s="8">
-        <v>18010</v>
+        <v>18005</v>
       </c>
       <c r="AT249" s="8">
-        <v>-33431</v>
+        <v>-33400</v>
       </c>
       <c r="AU249" s="8">
         <v>-178</v>
       </c>
       <c r="AV249" s="8">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="AW249" s="8">
-        <v>-2868</v>
+        <v>-2866</v>
       </c>
     </row>
     <row r="250" spans="1:49" x14ac:dyDescent="0.2">
@@ -54209,28 +54521,28 @@
         <v>43617</v>
       </c>
       <c r="B250" s="8">
-        <v>3851</v>
+        <v>3971</v>
       </c>
       <c r="C250" s="8">
-        <v>18245</v>
+        <v>18453</v>
       </c>
       <c r="D250" s="8">
-        <v>123978</v>
+        <v>124240</v>
       </c>
       <c r="E250" s="8">
-        <v>-105732</v>
+        <v>-105786</v>
       </c>
       <c r="F250" s="8">
-        <v>18782</v>
+        <v>19125</v>
       </c>
       <c r="G250" s="8">
-        <v>98900</v>
+        <v>99189</v>
       </c>
       <c r="H250" s="8">
-        <v>11775</v>
+        <v>11762</v>
       </c>
       <c r="I250" s="8">
-        <v>82096</v>
+        <v>82397</v>
       </c>
       <c r="J250" s="8">
         <v>26</v>
@@ -54239,46 +54551,46 @@
         <v>5003</v>
       </c>
       <c r="L250" s="8">
-        <v>-80118</v>
+        <v>-80064</v>
       </c>
       <c r="M250" s="8">
-        <v>-25951</v>
+        <v>-25970</v>
       </c>
       <c r="N250" s="8">
-        <v>-20195</v>
+        <v>-20173</v>
       </c>
       <c r="O250" s="8">
-        <v>-32474</v>
+        <v>-32422</v>
       </c>
       <c r="P250" s="8">
         <v>-1498</v>
       </c>
       <c r="Q250" s="8">
-        <v>-536</v>
+        <v>-671</v>
       </c>
       <c r="R250" s="8">
-        <v>25078</v>
+        <v>25051</v>
       </c>
       <c r="S250" s="8">
-        <v>-25615</v>
+        <v>-25723</v>
       </c>
       <c r="T250" s="8">
-        <v>-14521</v>
+        <v>-14603</v>
       </c>
       <c r="U250" s="8">
-        <v>17756</v>
+        <v>17743</v>
       </c>
       <c r="V250" s="8">
-        <v>-32277</v>
+        <v>-32346</v>
       </c>
       <c r="W250" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X250" s="8">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="Y250" s="8">
-        <v>-2620</v>
+        <v>-2624</v>
       </c>
       <c r="Z250" s="8"/>
       <c r="AA250" s="8"/>
@@ -54310,28 +54622,28 @@
         <v>43709</v>
       </c>
       <c r="B251" s="8">
-        <v>8210</v>
+        <v>7878</v>
       </c>
       <c r="C251" s="8">
-        <v>21782</v>
+        <v>21589</v>
       </c>
       <c r="D251" s="8">
-        <v>128267</v>
+        <v>128159</v>
       </c>
       <c r="E251" s="8">
-        <v>-106485</v>
+        <v>-106571</v>
       </c>
       <c r="F251" s="8">
-        <v>21689</v>
+        <v>21592</v>
       </c>
       <c r="G251" s="8">
-        <v>102376</v>
+        <v>102272</v>
       </c>
       <c r="H251" s="8">
-        <v>11441</v>
+        <v>11420</v>
       </c>
       <c r="I251" s="8">
-        <v>83336</v>
+        <v>83253</v>
       </c>
       <c r="J251" s="8">
         <v>38</v>
@@ -54340,46 +54652,46 @@
         <v>7561</v>
       </c>
       <c r="L251" s="8">
-        <v>-80688</v>
+        <v>-80679</v>
       </c>
       <c r="M251" s="8">
-        <v>-26364</v>
+        <v>-26386</v>
       </c>
       <c r="N251" s="8">
-        <v>-18917</v>
+        <v>-18929</v>
       </c>
       <c r="O251" s="8">
-        <v>-32793</v>
+        <v>-32751</v>
       </c>
       <c r="P251" s="8">
         <v>-2614</v>
       </c>
       <c r="Q251" s="8">
-        <v>93</v>
+        <v>-4</v>
       </c>
       <c r="R251" s="8">
-        <v>25891</v>
+        <v>25887</v>
       </c>
       <c r="S251" s="8">
-        <v>-25798</v>
+        <v>-25891</v>
       </c>
       <c r="T251" s="8">
-        <v>-13379</v>
+        <v>-13521</v>
       </c>
       <c r="U251" s="8">
-        <v>17668</v>
+        <v>17676</v>
       </c>
       <c r="V251" s="8">
-        <v>-31047</v>
+        <v>-31197</v>
       </c>
       <c r="W251" s="8">
-        <v>-193</v>
+        <v>-190</v>
       </c>
       <c r="X251" s="8">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="Y251" s="8">
-        <v>-2933</v>
+        <v>-2935</v>
       </c>
       <c r="Z251" s="8"/>
       <c r="AA251" s="8"/>
@@ -54411,28 +54723,28 @@
         <v>43800</v>
       </c>
       <c r="B252" s="8">
-        <v>4101</v>
+        <v>3995</v>
       </c>
       <c r="C252" s="8">
-        <v>16530</v>
+        <v>16353</v>
       </c>
       <c r="D252" s="8">
-        <v>122215</v>
+        <v>122234</v>
       </c>
       <c r="E252" s="8">
-        <v>-105685</v>
+        <v>-105881</v>
       </c>
       <c r="F252" s="8">
-        <v>16083</v>
+        <v>15834</v>
       </c>
       <c r="G252" s="8">
-        <v>95855</v>
+        <v>95885</v>
       </c>
       <c r="H252" s="8">
-        <v>12137</v>
+        <v>12179</v>
       </c>
       <c r="I252" s="8">
-        <v>77539</v>
+        <v>77526</v>
       </c>
       <c r="J252" s="8">
         <v>86</v>
@@ -54441,46 +54753,46 @@
         <v>6094</v>
       </c>
       <c r="L252" s="8">
-        <v>-79773</v>
+        <v>-80051</v>
       </c>
       <c r="M252" s="8">
-        <v>-26441</v>
+        <v>-26465</v>
       </c>
       <c r="N252" s="8">
-        <v>-18971</v>
+        <v>-19020</v>
       </c>
       <c r="O252" s="8">
-        <v>-33033</v>
+        <v>-33239</v>
       </c>
       <c r="P252" s="8">
         <v>-1327</v>
       </c>
       <c r="Q252" s="8">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="R252" s="8">
-        <v>26360</v>
+        <v>26349</v>
       </c>
       <c r="S252" s="8">
-        <v>-25913</v>
+        <v>-25830</v>
       </c>
       <c r="T252" s="8">
-        <v>-12122</v>
+        <v>-12051</v>
       </c>
       <c r="U252" s="8">
-        <v>17949</v>
+        <v>17978</v>
       </c>
       <c r="V252" s="8">
-        <v>-30071</v>
+        <v>-30029</v>
       </c>
       <c r="W252" s="8">
         <v>-307</v>
       </c>
       <c r="X252" s="8">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="Y252" s="8">
-        <v>-3010</v>
+        <v>-3016</v>
       </c>
       <c r="Z252" s="8"/>
       <c r="AA252" s="8"/>
@@ -54512,28 +54824,28 @@
         <v>43891</v>
       </c>
       <c r="B253" s="8">
-        <v>7322</v>
+        <v>7712</v>
       </c>
       <c r="C253" s="8">
-        <v>17257</v>
+        <v>17467</v>
       </c>
       <c r="D253" s="8">
-        <v>116247</v>
+        <v>116060</v>
       </c>
       <c r="E253" s="8">
-        <v>-98990</v>
+        <v>-98592</v>
       </c>
       <c r="F253" s="8">
-        <v>17948</v>
+        <v>17965</v>
       </c>
       <c r="G253" s="8">
-        <v>93823</v>
+        <v>93604</v>
       </c>
       <c r="H253" s="8">
-        <v>12020</v>
+        <v>12014</v>
       </c>
       <c r="I253" s="8">
-        <v>75574</v>
+        <v>75361</v>
       </c>
       <c r="J253" s="8">
         <v>124</v>
@@ -54542,46 +54854,46 @@
         <v>6105</v>
       </c>
       <c r="L253" s="8">
-        <v>-75875</v>
+        <v>-75639</v>
       </c>
       <c r="M253" s="8">
-        <v>-25591</v>
+        <v>-25498</v>
       </c>
       <c r="N253" s="8">
-        <v>-17633</v>
+        <v>-17586</v>
       </c>
       <c r="O253" s="8">
-        <v>-30434</v>
+        <v>-30337</v>
       </c>
       <c r="P253" s="8">
         <v>-2218</v>
       </c>
       <c r="Q253" s="8">
-        <v>-691</v>
+        <v>-497</v>
       </c>
       <c r="R253" s="8">
-        <v>22424</v>
+        <v>22456</v>
       </c>
       <c r="S253" s="8">
-        <v>-23115</v>
+        <v>-22953</v>
       </c>
       <c r="T253" s="8">
-        <v>-9725</v>
+        <v>-9549</v>
       </c>
       <c r="U253" s="8">
-        <v>17921</v>
+        <v>17894</v>
       </c>
       <c r="V253" s="8">
-        <v>-27646</v>
+        <v>-27443</v>
       </c>
       <c r="W253" s="8">
-        <v>-211</v>
+        <v>-207</v>
       </c>
       <c r="X253" s="8">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="Y253" s="8">
-        <v>-2911</v>
+        <v>-2897</v>
       </c>
       <c r="Z253" s="8"/>
       <c r="AA253" s="8"/>
@@ -54613,28 +54925,28 @@
         <v>43983</v>
       </c>
       <c r="B254" s="8">
-        <v>16525</v>
+        <v>16815</v>
       </c>
       <c r="C254" s="8">
-        <v>21642</v>
+        <v>22022</v>
       </c>
       <c r="D254" s="8">
-        <v>106590</v>
+        <v>106891</v>
       </c>
       <c r="E254" s="8">
-        <v>-84948</v>
+        <v>-84869</v>
       </c>
       <c r="F254" s="8">
-        <v>16444</v>
+        <v>16859</v>
       </c>
       <c r="G254" s="8">
-        <v>89859</v>
+        <v>90180</v>
       </c>
       <c r="H254" s="8">
-        <v>10971</v>
+        <v>10956</v>
       </c>
       <c r="I254" s="8">
-        <v>72844</v>
+        <v>73180</v>
       </c>
       <c r="J254" s="8">
         <v>111</v>
@@ -54643,46 +54955,46 @@
         <v>5933</v>
       </c>
       <c r="L254" s="8">
-        <v>-73415</v>
+        <v>-73321</v>
       </c>
       <c r="M254" s="8">
-        <v>-24469</v>
+        <v>-24482</v>
       </c>
       <c r="N254" s="8">
-        <v>-17358</v>
+        <v>-17334</v>
       </c>
       <c r="O254" s="8">
-        <v>-28852</v>
+        <v>-28769</v>
       </c>
       <c r="P254" s="8">
         <v>-2736</v>
       </c>
       <c r="Q254" s="8">
-        <v>5198</v>
+        <v>5163</v>
       </c>
       <c r="R254" s="8">
-        <v>16732</v>
+        <v>16711</v>
       </c>
       <c r="S254" s="8">
-        <v>-11534</v>
+        <v>-11548</v>
       </c>
       <c r="T254" s="8">
-        <v>-4508</v>
+        <v>-4591</v>
       </c>
       <c r="U254" s="8">
-        <v>15244</v>
+        <v>15229</v>
       </c>
       <c r="V254" s="8">
-        <v>-19752</v>
+        <v>-19820</v>
       </c>
       <c r="W254" s="8">
-        <v>-608</v>
+        <v>-617</v>
       </c>
       <c r="X254" s="8">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="Y254" s="8">
-        <v>-2922</v>
+        <v>-2928</v>
       </c>
       <c r="Z254" s="8"/>
       <c r="AA254" s="8"/>
@@ -54714,28 +55026,28 @@
         <v>44075</v>
       </c>
       <c r="B255" s="8">
-        <v>10185</v>
+        <v>9817</v>
       </c>
       <c r="C255" s="8">
-        <v>13871</v>
+        <v>13581</v>
       </c>
       <c r="D255" s="8">
-        <v>100903</v>
+        <v>100665</v>
       </c>
       <c r="E255" s="8">
-        <v>-87032</v>
+        <v>-87084</v>
       </c>
       <c r="F255" s="8">
-        <v>9457</v>
+        <v>9261</v>
       </c>
       <c r="G255" s="8">
-        <v>85234</v>
+        <v>85001</v>
       </c>
       <c r="H255" s="8">
-        <v>9080</v>
+        <v>9058</v>
       </c>
       <c r="I255" s="8">
-        <v>68668</v>
+        <v>68457</v>
       </c>
       <c r="J255" s="8">
         <v>126</v>
@@ -54744,46 +55056,46 @@
         <v>7361</v>
       </c>
       <c r="L255" s="8">
-        <v>-75778</v>
+        <v>-75741</v>
       </c>
       <c r="M255" s="8">
-        <v>-26735</v>
+        <v>-26758</v>
       </c>
       <c r="N255" s="8">
-        <v>-18463</v>
+        <v>-18474</v>
       </c>
       <c r="O255" s="8">
-        <v>-27556</v>
+        <v>-27485</v>
       </c>
       <c r="P255" s="8">
         <v>-3024</v>
       </c>
       <c r="Q255" s="8">
-        <v>4414</v>
+        <v>4320</v>
       </c>
       <c r="R255" s="8">
-        <v>15668</v>
+        <v>15664</v>
       </c>
       <c r="S255" s="8">
-        <v>-11254</v>
+        <v>-11344</v>
       </c>
       <c r="T255" s="8">
-        <v>-3097</v>
+        <v>-3189</v>
       </c>
       <c r="U255" s="8">
-        <v>16527</v>
+        <v>16580</v>
       </c>
       <c r="V255" s="8">
-        <v>-19624</v>
+        <v>-19770</v>
       </c>
       <c r="W255" s="8">
-        <v>-589</v>
+        <v>-574</v>
       </c>
       <c r="X255" s="8">
-        <v>2328</v>
+        <v>2347</v>
       </c>
       <c r="Y255" s="8">
-        <v>-2917</v>
+        <v>-2921</v>
       </c>
       <c r="Z255" s="8"/>
       <c r="AA255" s="8"/>
@@ -54815,28 +55127,28 @@
         <v>44166</v>
       </c>
       <c r="B256" s="8">
-        <v>16986</v>
+        <v>16791</v>
       </c>
       <c r="C256" s="8">
-        <v>19865</v>
+        <v>19552</v>
       </c>
       <c r="D256" s="8">
-        <v>111005</v>
+        <v>111120</v>
       </c>
       <c r="E256" s="8">
-        <v>-91140</v>
+        <v>-91567</v>
       </c>
       <c r="F256" s="8">
-        <v>15864</v>
+        <v>15656</v>
       </c>
       <c r="G256" s="8">
-        <v>94730</v>
+        <v>94859</v>
       </c>
       <c r="H256" s="8">
-        <v>10979</v>
+        <v>11030</v>
       </c>
       <c r="I256" s="8">
-        <v>75867</v>
+        <v>75945</v>
       </c>
       <c r="J256" s="8">
         <v>225</v>
@@ -54845,46 +55157,46 @@
         <v>7659</v>
       </c>
       <c r="L256" s="8">
-        <v>-78866</v>
+        <v>-79203</v>
       </c>
       <c r="M256" s="8">
-        <v>-29154</v>
+        <v>-29214</v>
       </c>
       <c r="N256" s="8">
-        <v>-20424</v>
+        <v>-20494</v>
       </c>
       <c r="O256" s="8">
-        <v>-27707</v>
+        <v>-27914</v>
       </c>
       <c r="P256" s="8">
         <v>-1581</v>
       </c>
       <c r="Q256" s="8">
-        <v>4001</v>
+        <v>3896</v>
       </c>
       <c r="R256" s="8">
-        <v>16275</v>
+        <v>16261</v>
       </c>
       <c r="S256" s="8">
-        <v>-12274</v>
+        <v>-12365</v>
       </c>
       <c r="T256" s="8">
-        <v>-2150</v>
+        <v>-2017</v>
       </c>
       <c r="U256" s="8">
-        <v>15217</v>
+        <v>15282</v>
       </c>
       <c r="V256" s="8">
-        <v>-17367</v>
+        <v>-17299</v>
       </c>
       <c r="W256" s="8">
-        <v>-728</v>
+        <v>-744</v>
       </c>
       <c r="X256" s="8">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="Y256" s="8">
-        <v>-3092</v>
+        <v>-3103</v>
       </c>
       <c r="Z256" s="8"/>
       <c r="AA256" s="8"/>
@@ -54916,28 +55228,28 @@
         <v>44256</v>
       </c>
       <c r="B257" s="8">
-        <v>19770</v>
+        <v>20263</v>
       </c>
       <c r="C257" s="8">
-        <v>25866</v>
+        <v>26217</v>
       </c>
       <c r="D257" s="8">
-        <v>119512</v>
+        <v>119471</v>
       </c>
       <c r="E257" s="8">
-        <v>-93646</v>
+        <v>-93255</v>
       </c>
       <c r="F257" s="8">
-        <v>22807</v>
+        <v>23082</v>
       </c>
       <c r="G257" s="8">
-        <v>104190</v>
+        <v>104157</v>
       </c>
       <c r="H257" s="8">
-        <v>12415</v>
+        <v>12416</v>
       </c>
       <c r="I257" s="8">
-        <v>84023</v>
+        <v>83990</v>
       </c>
       <c r="J257" s="8">
         <v>150</v>
@@ -54946,46 +55258,46 @@
         <v>7601</v>
       </c>
       <c r="L257" s="8">
-        <v>-81383</v>
+        <v>-81076</v>
       </c>
       <c r="M257" s="8">
-        <v>-29220</v>
+        <v>-29058</v>
       </c>
       <c r="N257" s="8">
-        <v>-20018</v>
+        <v>-19950</v>
       </c>
       <c r="O257" s="8">
-        <v>-30267</v>
+        <v>-30189</v>
       </c>
       <c r="P257" s="8">
         <v>-1878</v>
       </c>
       <c r="Q257" s="8">
-        <v>3060</v>
+        <v>3135</v>
       </c>
       <c r="R257" s="8">
-        <v>15322</v>
+        <v>15314</v>
       </c>
       <c r="S257" s="8">
-        <v>-12263</v>
+        <v>-12179</v>
       </c>
       <c r="T257" s="8">
-        <v>-5648</v>
+        <v>-5513</v>
       </c>
       <c r="U257" s="8">
-        <v>17009</v>
+        <v>17029</v>
       </c>
       <c r="V257" s="8">
-        <v>-22657</v>
+        <v>-22543</v>
       </c>
       <c r="W257" s="8">
-        <v>-448</v>
+        <v>-440</v>
       </c>
       <c r="X257" s="8">
-        <v>2363</v>
+        <v>2352</v>
       </c>
       <c r="Y257" s="8">
-        <v>-2811</v>
+        <v>-2792</v>
       </c>
       <c r="Z257" s="8"/>
       <c r="AA257" s="8"/>
@@ -55017,28 +55329,28 @@
         <v>44348</v>
       </c>
       <c r="B258" s="8">
-        <v>22405</v>
+        <v>22338</v>
       </c>
       <c r="C258" s="8">
-        <v>30476</v>
+        <v>30583</v>
       </c>
       <c r="D258" s="8">
-        <v>127627</v>
+        <v>127912</v>
       </c>
       <c r="E258" s="8">
-        <v>-97151</v>
+        <v>-97329</v>
       </c>
       <c r="F258" s="8">
-        <v>27990</v>
+        <v>28227</v>
       </c>
       <c r="G258" s="8">
-        <v>112219</v>
+        <v>112564</v>
       </c>
       <c r="H258" s="8">
-        <v>13208</v>
+        <v>13180</v>
       </c>
       <c r="I258" s="8">
-        <v>93171</v>
+        <v>93544</v>
       </c>
       <c r="J258" s="8">
         <v>104</v>
@@ -55047,46 +55359,46 @@
         <v>5735</v>
       </c>
       <c r="L258" s="8">
-        <v>-84229</v>
+        <v>-84336</v>
       </c>
       <c r="M258" s="8">
-        <v>-29099</v>
+        <v>-29174</v>
       </c>
       <c r="N258" s="8">
-        <v>-20200</v>
+        <v>-20347</v>
       </c>
       <c r="O258" s="8">
-        <v>-32956</v>
+        <v>-32842</v>
       </c>
       <c r="P258" s="8">
         <v>-1974</v>
       </c>
       <c r="Q258" s="8">
-        <v>2486</v>
+        <v>2356</v>
       </c>
       <c r="R258" s="8">
-        <v>15408</v>
+        <v>15348</v>
       </c>
       <c r="S258" s="8">
-        <v>-12922</v>
+        <v>-12992</v>
       </c>
       <c r="T258" s="8">
-        <v>-6713</v>
+        <v>-6876</v>
       </c>
       <c r="U258" s="8">
-        <v>17048</v>
+        <v>17097</v>
       </c>
       <c r="V258" s="8">
-        <v>-23761</v>
+        <v>-23973</v>
       </c>
       <c r="W258" s="8">
-        <v>-1358</v>
+        <v>-1369</v>
       </c>
       <c r="X258" s="8">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="Y258" s="8">
-        <v>-3735</v>
+        <v>-3745</v>
       </c>
       <c r="Z258" s="8"/>
       <c r="AA258" s="8"/>
@@ -55118,76 +55430,76 @@
         <v>44440</v>
       </c>
       <c r="B259" s="8">
-        <v>21981</v>
+        <v>20326</v>
       </c>
       <c r="C259" s="8">
-        <v>37400</v>
+        <v>36055</v>
       </c>
       <c r="D259" s="8">
-        <v>137519</v>
+        <v>136305</v>
       </c>
       <c r="E259" s="8">
-        <v>-100119</v>
+        <v>-100250</v>
       </c>
       <c r="F259" s="8">
-        <v>36115</v>
+        <v>35561</v>
       </c>
       <c r="G259" s="8">
-        <v>122489</v>
+        <v>121861</v>
       </c>
       <c r="H259" s="8">
-        <v>14647</v>
+        <v>14578</v>
       </c>
       <c r="I259" s="8">
-        <v>101822</v>
+        <v>101276</v>
       </c>
       <c r="J259" s="8">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K259" s="8">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="L259" s="8">
-        <v>-86374</v>
+        <v>-86300</v>
       </c>
       <c r="M259" s="8">
-        <v>-27749</v>
+        <v>-27763</v>
       </c>
       <c r="N259" s="8">
-        <v>-21677</v>
+        <v>-21691</v>
       </c>
       <c r="O259" s="8">
-        <v>-35522</v>
+        <v>-35419</v>
       </c>
       <c r="P259" s="8">
         <v>-1427</v>
       </c>
       <c r="Q259" s="8">
-        <v>1285</v>
+        <v>495</v>
       </c>
       <c r="R259" s="8">
-        <v>15029</v>
+        <v>14444</v>
       </c>
       <c r="S259" s="8">
-        <v>-13745</v>
+        <v>-13949</v>
       </c>
       <c r="T259" s="8">
-        <v>-14742</v>
+        <v>-15061</v>
       </c>
       <c r="U259" s="8">
-        <v>19137</v>
+        <v>18997</v>
       </c>
       <c r="V259" s="8">
-        <v>-33878</v>
+        <v>-34059</v>
       </c>
       <c r="W259" s="8">
-        <v>-677</v>
+        <v>-669</v>
       </c>
       <c r="X259" s="8">
-        <v>2454</v>
+        <v>2465</v>
       </c>
       <c r="Y259" s="8">
-        <v>-3131</v>
+        <v>-3133</v>
       </c>
       <c r="Z259" s="8"/>
       <c r="AA259" s="8"/>
@@ -55219,76 +55531,76 @@
         <v>44531</v>
       </c>
       <c r="B260" s="8">
-        <v>12677</v>
+        <v>13235</v>
       </c>
       <c r="C260" s="8">
-        <v>31001</v>
+        <v>29148</v>
       </c>
       <c r="D260" s="8">
-        <v>135994</v>
+        <v>136209</v>
       </c>
       <c r="E260" s="8">
-        <v>-104993</v>
+        <v>-107061</v>
       </c>
       <c r="F260" s="8">
-        <v>31022</v>
+        <v>30710</v>
       </c>
       <c r="G260" s="8">
-        <v>121541</v>
+        <v>122139</v>
       </c>
       <c r="H260" s="8">
-        <v>15769</v>
+        <v>15601</v>
       </c>
       <c r="I260" s="8">
-        <v>99111</v>
+        <v>99876</v>
       </c>
       <c r="J260" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K260" s="8">
-        <v>6566</v>
+        <v>6564</v>
       </c>
       <c r="L260" s="8">
-        <v>-90519</v>
+        <v>-91429</v>
       </c>
       <c r="M260" s="8">
-        <v>-27626</v>
+        <v>-27708</v>
       </c>
       <c r="N260" s="8">
-        <v>-21609</v>
+        <v>-21708</v>
       </c>
       <c r="O260" s="8">
-        <v>-39878</v>
+        <v>-40607</v>
       </c>
       <c r="P260" s="8">
         <v>-1407</v>
       </c>
       <c r="Q260" s="8">
-        <v>-20</v>
+        <v>-1562</v>
       </c>
       <c r="R260" s="8">
-        <v>14453</v>
+        <v>14070</v>
       </c>
       <c r="S260" s="8">
-        <v>-14474</v>
+        <v>-15632</v>
       </c>
       <c r="T260" s="8">
-        <v>-17461</v>
+        <v>-15167</v>
       </c>
       <c r="U260" s="8">
-        <v>20783</v>
+        <v>20679</v>
       </c>
       <c r="V260" s="8">
-        <v>-38245</v>
+        <v>-35846</v>
       </c>
       <c r="W260" s="8">
-        <v>-862</v>
+        <v>-747</v>
       </c>
       <c r="X260" s="8">
-        <v>2434</v>
+        <v>2532</v>
       </c>
       <c r="Y260" s="8">
-        <v>-3297</v>
+        <v>-3278</v>
       </c>
       <c r="Z260" s="8"/>
       <c r="AA260" s="8"/>
@@ -55314,6 +55626,107 @@
       <c r="AU260" s="8"/>
       <c r="AV260" s="8"/>
       <c r="AW260" s="8"/>
+    </row>
+    <row r="261" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A261" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B261" s="8">
+        <v>7532</v>
+      </c>
+      <c r="C261" s="8">
+        <v>28229</v>
+      </c>
+      <c r="D261" s="8">
+        <v>148011</v>
+      </c>
+      <c r="E261" s="8">
+        <v>-119782</v>
+      </c>
+      <c r="F261" s="8">
+        <v>30872</v>
+      </c>
+      <c r="G261" s="8">
+        <v>133523</v>
+      </c>
+      <c r="H261" s="8">
+        <v>16707</v>
+      </c>
+      <c r="I261" s="8">
+        <v>110590</v>
+      </c>
+      <c r="J261" s="8">
+        <v>94</v>
+      </c>
+      <c r="K261" s="8">
+        <v>6132</v>
+      </c>
+      <c r="L261" s="8">
+        <v>-102651</v>
+      </c>
+      <c r="M261" s="8">
+        <v>-32568</v>
+      </c>
+      <c r="N261" s="8">
+        <v>-23074</v>
+      </c>
+      <c r="O261" s="8">
+        <v>-45311</v>
+      </c>
+      <c r="P261" s="8">
+        <v>-1698</v>
+      </c>
+      <c r="Q261" s="8">
+        <v>-2644</v>
+      </c>
+      <c r="R261" s="8">
+        <v>14488</v>
+      </c>
+      <c r="S261" s="8">
+        <v>-17132</v>
+      </c>
+      <c r="T261" s="8">
+        <v>-20025</v>
+      </c>
+      <c r="U261" s="8">
+        <v>20998</v>
+      </c>
+      <c r="V261" s="8">
+        <v>-41023</v>
+      </c>
+      <c r="W261" s="8">
+        <v>-671</v>
+      </c>
+      <c r="X261" s="8">
+        <v>2677</v>
+      </c>
+      <c r="Y261" s="8">
+        <v>-3349</v>
+      </c>
+      <c r="Z261" s="8"/>
+      <c r="AA261" s="8"/>
+      <c r="AB261" s="8"/>
+      <c r="AC261" s="8"/>
+      <c r="AD261" s="8"/>
+      <c r="AE261" s="8"/>
+      <c r="AF261" s="8"/>
+      <c r="AG261" s="8"/>
+      <c r="AH261" s="8"/>
+      <c r="AI261" s="8"/>
+      <c r="AJ261" s="8"/>
+      <c r="AK261" s="8"/>
+      <c r="AL261" s="8"/>
+      <c r="AM261" s="8"/>
+      <c r="AN261" s="8"/>
+      <c r="AO261" s="8"/>
+      <c r="AP261" s="8"/>
+      <c r="AQ261" s="8"/>
+      <c r="AR261" s="8"/>
+      <c r="AS261" s="8"/>
+      <c r="AT261" s="8"/>
+      <c r="AU261" s="8"/>
+      <c r="AV261" s="8"/>
+      <c r="AW261" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
